--- a/data.xlsx
+++ b/data.xlsx
@@ -5,20 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haithamdata/Downloads/Mail Downloads/cost_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haithamdata/Downloads/Mail Downloads/cost_dashboard_vis3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF094941-8A3E-1346-A35B-04D0428EC6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D517F132-EE8C-F44A-A138-570763911861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="23840" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="160" yWindow="500" windowWidth="38080" windowHeight="24160" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q2-25 TCO " sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Q2-25 TCO " sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q2-25 TCO '!$A$1:$Z$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Q2-25 TCO '!$A$1:$Z$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1119,7 +1123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="296">
   <si>
     <t>0060010100</t>
   </si>
@@ -1995,6 +1999,18 @@
   </si>
   <si>
     <t xml:space="preserve">PROCEED 3pl COST VALUE </t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Dist. COST VALUE </t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2348,6 +2364,14 @@
     <xf numFmtId="168" fontId="4" fillId="18" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2359,7 +2383,41 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{707BD2B3-8AA8-4307-A84B-EBB69806C7F2}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2383,6 +2441,4600 @@
   <person displayName="Emad Madi" id="{E780D4DE-2E26-4678-A303-F673B9582D47}" userId="S::emad.madi@al-dawaa.com::0af5d38f-ceab-4817-8768-6bebb9b99950" providerId="AD"/>
   <person displayName="Emad Madi" id="{EE5F9854-9370-400A-874C-C50929630982}" userId="S::f5d7f697-1a69-48dc-80eb-7aee3a1b835c@dbsmena.onmicrosoft.com::0af5d38f-ceab-4817-8768-6bebb9b99950" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Haitham Attia" refreshedDate="45919.77389895833" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="141" xr:uid="{FB61C7E8-881C-5D4D-AF15-90CDF8D916E3}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:Z1048576" sheet="Q2-25 TCO "/>
+  </cacheSource>
+  <cacheFields count="26">
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2025" maxValue="2025"/>
+    </cacheField>
+    <cacheField name="quarter" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Warehouse " numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GL Account No." numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GL Account Name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GL Accounts Group" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cost Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="TCO Model Categories" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Main Categories" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="OpEx /CapEx" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="total incured cost" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="8472332.25" count="43">
+        <n v="8472332.25"/>
+        <n v="6104809.5199999996"/>
+        <m/>
+        <n v="2166864.3199999998"/>
+        <n v="14549.41"/>
+        <n v="0"/>
+        <n v="122006"/>
+        <n v="145887.82999999999"/>
+        <n v="1553615.69"/>
+        <n v="20526"/>
+        <n v="46848.05"/>
+        <n v="1405701.5"/>
+        <n v="149662.78"/>
+        <n v="3380136.98"/>
+        <n v="2505954.88"/>
+        <n v="180708.43"/>
+        <n v="491442.01"/>
+        <n v="294883.68"/>
+        <n v="6501"/>
+        <n v="28320"/>
+        <n v="30935"/>
+        <n v="3100"/>
+        <n v="500"/>
+        <n v="33600"/>
+        <n v="979404.74"/>
+        <n v="254919.25"/>
+        <n v="1810965.93"/>
+        <n v="775097"/>
+        <n v="6150"/>
+        <n v="40200"/>
+        <n v="3342"/>
+        <n v="13198.3"/>
+        <n v="327087.90999999997"/>
+        <n v="1154511.69"/>
+        <n v="421881.35"/>
+        <n v="212822"/>
+        <n v="928757"/>
+        <n v="5560548.5700000003"/>
+        <n v="362947.54"/>
+        <n v="15884.09"/>
+        <n v="713942.51"/>
+        <n v="1988066.11"/>
+        <n v="2246662.02"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="WH COST SHARE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="TRS COST SHARE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="WH COST VALUE" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="3540789.5215999996"/>
+    </cacheField>
+    <cacheField name="TRS COST VALUE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5930632.5749999993"/>
+    </cacheField>
+    <cacheField name="Dist. COST SHARE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.2" count="9">
+        <n v="0.06"/>
+        <n v="0.01"/>
+        <n v="0"/>
+        <n v="2.5000000000000001E-2"/>
+        <n v="0.05"/>
+        <n v="5.5E-2"/>
+        <n v="0.2"/>
+        <n v="0.02"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Last Mile (TRS) COST SHARE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1" count="14">
+        <n v="0.3"/>
+        <n v="2.5000000000000001E-2"/>
+        <m/>
+        <n v="0.05"/>
+        <n v="0.15"/>
+        <n v="0.35"/>
+        <n v="0"/>
+        <n v="0.2"/>
+        <n v="0.4"/>
+        <n v="0.02"/>
+        <n v="0.25"/>
+        <n v="0.14000000000000001"/>
+        <n v="0.1105"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Proceed 3PL (WH) COST SHARE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Proceed 3PL (TRS) COST SHARE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="PHs COST VALUE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="37999289.706412025" count="43">
+        <n v="5041037.6887500007"/>
+        <n v="4120017.0721970266"/>
+        <n v="0"/>
+        <n v="1835767.4519039998"/>
+        <n v="11144.84806"/>
+        <n v="95652.703999999998"/>
+        <n v="122545.77719999998"/>
+        <n v="1263089.5559700001"/>
+        <n v="17323.944"/>
+        <n v="39539.754200000003"/>
+        <n v="951659.9155"/>
+        <n v="118981.91010000001"/>
+        <n v="2545919.1733360002"/>
+        <n v="1628870.6719999998"/>
+        <n v="141675.40912"/>
+        <n v="368581.50750000001"/>
+        <n v="188725.5552"/>
+        <n v="5005.7700000000004"/>
+        <n v="22089.599999999999"/>
+        <n v="24129.300000000003"/>
+        <n v="2418"/>
+        <n v="390"/>
+        <n v="26208"/>
+        <n v="713006.65072000003"/>
+        <n v="200621.44975"/>
+        <n v="1340114.7881999998"/>
+        <n v="515439.505"/>
+        <n v="5289"/>
+        <n v="31758"/>
+        <n v="2940.96"/>
+        <n v="12274.419"/>
+        <n v="304191.75630000001"/>
+        <n v="771213.80891999998"/>
+        <n v="317254.77519999997"/>
+        <n v="144931.78200000001"/>
+        <n v="720715.43200000003"/>
+        <n v="2780274.2850000001"/>
+        <n v="299068.77295999997"/>
+        <n v="13406.17196"/>
+        <n v="547593.90517000004"/>
+        <n v="2014109.1356449919"/>
+        <n v="37999289.706412025"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dist. COST VALUE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="508339.935"/>
+    </cacheField>
+    <cacheField name="Last Mile COST VALUE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1988066.11"/>
+    </cacheField>
+    <cacheField name="Proceed 3PL (WH) COST VALUE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="357131.46680657129"/>
+    </cacheField>
+    <cacheField name="Proceed 3PL (TRS) COST VALUE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1668164.571"/>
+    </cacheField>
+    <cacheField name="PROCEED 3pl COST VALUE " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1859643.8526429732"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="141">
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010100"/>
+    <s v="Basic Salaries"/>
+    <s v="Basic Salaries"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <n v="0.7"/>
+    <n v="2541699.6749999998"/>
+    <n v="5930632.5749999993"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <n v="0.15"/>
+    <x v="0"/>
+    <n v="508339.935"/>
+    <n v="1779189.7724999997"/>
+    <n v="254169.9675"/>
+    <n v="889594.88624999986"/>
+    <n v="1143764.8537499998"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060020200"/>
+    <s v="Hired Labor"/>
+    <s v="Basic Salaries"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="1"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.42"/>
+    <n v="3540789.5215999996"/>
+    <n v="2564019.9983999999"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.1008621"/>
+    <n v="0.58599869999999998"/>
+    <x v="1"/>
+    <n v="61048.095199999996"/>
+    <n v="64100.499960000001"/>
+    <n v="357131.46680657129"/>
+    <n v="1502512.385836402"/>
+    <n v="1859643.8526429732"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061050000"/>
+    <s v="Cargo &amp; Freight"/>
+    <s v="Cargo &amp; Freight"/>
+    <s v="Variable"/>
+    <s v="Cargo &amp; Freight"/>
+    <s v="Vehicle Rent"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010700"/>
+    <s v="Deputation Allowance"/>
+    <s v="Deputation Allowance"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="3"/>
+    <n v="0.02"/>
+    <n v="0.98"/>
+    <n v="43337.286399999997"/>
+    <n v="2123527.0335999997"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.02"/>
+    <n v="0.08"/>
+    <x v="3"/>
+    <n v="54171.608"/>
+    <n v="106176.35167999999"/>
+    <n v="866.74572799999999"/>
+    <n v="169882.16268799998"/>
+    <n v="170748.90841599999"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061040000"/>
+    <s v="Electricity &amp; Water"/>
+    <s v="Electricity &amp; Water"/>
+    <s v="Variable"/>
+    <s v="Electricity &amp;Water"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="4"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="13094.469000000001"/>
+    <n v="1454.941"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.18"/>
+    <n v="0.22"/>
+    <x v="4"/>
+    <n v="727.47050000000002"/>
+    <n v="0"/>
+    <n v="2357.0044200000002"/>
+    <n v="320.08702"/>
+    <n v="2677.0914400000001"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061140300"/>
+    <s v="Engineering Fees"/>
+    <s v="Engineering Fees"/>
+    <s v="Constant"/>
+    <s v="Engineering Fees"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.08"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100000"/>
+    <s v="Cleanlines&amp;Hospitali"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="5"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100002"/>
+    <s v="Warehouses housekeep"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="6"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="97604.800000000003"/>
+    <n v="24401.200000000001"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.18"/>
+    <x v="5"/>
+    <n v="7320.36"/>
+    <n v="0"/>
+    <n v="14640.72"/>
+    <n v="4392.2160000000003"/>
+    <n v="19032.936000000002"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100003"/>
+    <s v="Offices housekeeping"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100004"/>
+    <s v="Warehouse Packing"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="7"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="131299.04699999999"/>
+    <n v="14588.782999999999"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.1"/>
+    <x v="6"/>
+    <n v="8753.2697999999982"/>
+    <n v="0"/>
+    <n v="13129.904699999999"/>
+    <n v="1458.8783000000001"/>
+    <n v="14588.782999999999"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100005"/>
+    <s v="Pharmacies entertain"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100006"/>
+    <s v="Warehouse entertainm"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="8"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="1242892.5519999999"/>
+    <n v="310723.13799999998"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="0.12"/>
+    <n v="0.18"/>
+    <x v="7"/>
+    <n v="85448.862949999995"/>
+    <n v="0"/>
+    <n v="149147.10623999999"/>
+    <n v="55930.16483999999"/>
+    <n v="205077.27107999998"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100007"/>
+    <s v="Offices entertainmen"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100101"/>
+    <s v="Pharmacies employees"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061100102"/>
+    <s v="Warehouses employees"/>
+    <s v="Entertainments"/>
+    <s v="Variable"/>
+    <s v="Entertainments"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061030100"/>
+    <s v="Airfare Tickets - Bu"/>
+    <s v="Flight &amp; Hotels Expenses"/>
+    <s v="Variable"/>
+    <s v="Flight &amp; Hotels Expenses"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="9"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="14368.199999999999"/>
+    <n v="6157.8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.03"/>
+    <n v="0.25"/>
+    <x v="8"/>
+    <n v="1231.56"/>
+    <n v="0"/>
+    <n v="431.04599999999994"/>
+    <n v="1539.45"/>
+    <n v="1970.4960000000001"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061030300"/>
+    <s v="Hotels&amp;Accommodation"/>
+    <s v="Flight &amp; Hotels Expenses"/>
+    <s v="Variable"/>
+    <s v="Flight &amp; Hotels Expenses"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="10"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="32793.635000000002"/>
+    <n v="14054.415000000001"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.03"/>
+    <n v="0.25"/>
+    <x v="9"/>
+    <n v="2810.8830000000003"/>
+    <n v="0"/>
+    <n v="983.80905000000007"/>
+    <n v="3513.6037500000002"/>
+    <n v="4497.4128000000001"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061150000"/>
+    <s v="Gifts &amp; Donation"/>
+    <s v="Gifts &amp; Donation"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.08"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060020400"/>
+    <s v="Government Relation"/>
+    <s v="Government Relation"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="11"/>
+    <n v="0.4"/>
+    <n v="0.6"/>
+    <n v="562280.6"/>
+    <n v="843420.9"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <n v="0.08"/>
+    <x v="10"/>
+    <n v="77313.582500000004"/>
+    <n v="253026.27"/>
+    <n v="56228.06"/>
+    <n v="67473.672000000006"/>
+    <n v="123701.732"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061020100"/>
+    <s v="Gov.-Ph.'s License"/>
+    <s v="Governmental Fees"/>
+    <s v="Constant"/>
+    <s v="Governmental Fees"/>
+    <s v="Governmental &amp; Insurance Expenses"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061020200"/>
+    <s v="Gov.-CR Renewal Fees"/>
+    <s v="Governmental Fees"/>
+    <s v="Constant"/>
+    <s v="Governmental Fees"/>
+    <s v="Governmental &amp; Insurance Expenses"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061020300"/>
+    <s v="Gov. Commerce Chambe"/>
+    <s v="Governmental Fees"/>
+    <s v="Constant"/>
+    <s v="Governmental Fees"/>
+    <s v="Governmental &amp; Insurance Expenses"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061029900"/>
+    <s v="Gov.-Others"/>
+    <s v="Governmental Fees"/>
+    <s v="Constant"/>
+    <s v="Governmental Fees"/>
+    <s v="Governmental &amp; Insurance Expenses"/>
+    <s v="OpEx"/>
+    <x v="12"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="104763.946"/>
+    <n v="44898.833999999995"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <x v="11"/>
+    <n v="8979.7667999999994"/>
+    <n v="0"/>
+    <n v="10476.3946"/>
+    <n v="11224.708499999999"/>
+    <n v="21701.1031"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010500"/>
+    <s v="Housing Allowance"/>
+    <s v="Housing Allowance"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="13"/>
+    <n v="0.27"/>
+    <n v="0.73"/>
+    <n v="912636.98460000008"/>
+    <n v="2467499.9953999999"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.08"/>
+    <x v="12"/>
+    <n v="202808.2188"/>
+    <n v="370124.99930999998"/>
+    <n v="63884.58892200001"/>
+    <n v="197399.99963199999"/>
+    <n v="261284.58855400002"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060011100"/>
+    <s v="Commission&amp;Incentive"/>
+    <s v="Incentive"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="14"/>
+    <n v="0.4"/>
+    <n v="0.6"/>
+    <n v="1002381.952"/>
+    <n v="1503572.9279999998"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.08"/>
+    <n v="0.08"/>
+    <x v="13"/>
+    <n v="150357.2928"/>
+    <n v="526250.5247999999"/>
+    <n v="80190.556160000007"/>
+    <n v="120285.83424"/>
+    <n v="200476.3904"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060011200"/>
+    <s v="Incentives"/>
+    <s v="Incentive"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.08"/>
+    <n v="0.08"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061130100"/>
+    <s v="Fire&amp;Thefty Ins."/>
+    <s v="Insurance"/>
+    <s v="Constant"/>
+    <s v="Insurance"/>
+    <s v="Governmental &amp; Insurance Expenses"/>
+    <s v="OpEx"/>
+    <x v="15"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="144566.74400000001"/>
+    <n v="36141.686000000002"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.18"/>
+    <x v="14"/>
+    <n v="10842.505799999999"/>
+    <n v="0"/>
+    <n v="21685.011600000002"/>
+    <n v="6505.5034800000003"/>
+    <n v="28190.515080000001"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061130200"/>
+    <s v="Vehicles Insurance"/>
+    <s v="Insurance"/>
+    <s v="Constant"/>
+    <s v="Insurance"/>
+    <s v="Governmental &amp; Insurance Expenses"/>
+    <s v="OpEx"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="491442.01"/>
+    <x v="0"/>
+    <x v="6"/>
+    <m/>
+    <n v="0.19"/>
+    <x v="15"/>
+    <n v="29486.5206"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="93373.981899999999"/>
+    <n v="93373.981899999999"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061070000"/>
+    <s v="IT Expenses"/>
+    <s v="IT Expenses"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="0.1"/>
+    <n v="0.6"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061070100"/>
+    <s v="ERP, Software &amp; appl"/>
+    <s v="IT Expenses"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="0.1"/>
+    <n v="0.4"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061070200"/>
+    <s v="Network, infrastruct"/>
+    <s v="IT Expenses"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061070300"/>
+    <s v="Security, &amp; Business"/>
+    <s v="IT Expenses"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061070400"/>
+    <s v="IT Operations"/>
+    <s v="IT Expenses"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="17"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="147441.84"/>
+    <n v="147441.84"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="0.1"/>
+    <n v="0.3"/>
+    <x v="16"/>
+    <n v="17693.020799999998"/>
+    <n v="29488.368000000002"/>
+    <n v="14744.184000000001"/>
+    <n v="44232.551999999996"/>
+    <n v="58976.735999999997"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061070500"/>
+    <s v="Cloud Services &amp; Dat"/>
+    <s v="IT Expenses"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="0.1"/>
+    <n v="0.6"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010800"/>
+    <s v="Mobil Allowance"/>
+    <s v="Mobil Allowance"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="18"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="4550.7"/>
+    <n v="1950.3"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="0.02"/>
+    <n v="0.12"/>
+    <x v="17"/>
+    <n v="390.06"/>
+    <n v="780.12"/>
+    <n v="91.013999999999996"/>
+    <n v="234.03599999999997"/>
+    <n v="325.04999999999995"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061120300"/>
+    <s v="Veh. License Fees"/>
+    <s v="Licence Fees"/>
+    <s v="Constant"/>
+    <s v="Licence Fees"/>
+    <s v="Governmental &amp; Insurance Expenses"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <m/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110000"/>
+    <s v="Repair&amp;Maintenance"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="5"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110001"/>
+    <s v="Ph Periodic  AC"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110002"/>
+    <s v="Ph Periodic  FF"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110003"/>
+    <s v="Ph Periodic doors"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110004"/>
+    <s v="Ph Periodc CCTV"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110005"/>
+    <s v="Ph Periodic Pest con"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110006"/>
+    <s v="Pharmacies Consumabl"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110007"/>
+    <s v="WH Periodic AC"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="19"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="25488"/>
+    <n v="2832"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="18"/>
+    <n v="1699.2"/>
+    <n v="0"/>
+    <n v="3823.2"/>
+    <n v="708"/>
+    <n v="4531.2"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110008"/>
+    <s v="WH Periodic FF"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="20"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="27841.5"/>
+    <n v="3093.5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="19"/>
+    <n v="1856.1"/>
+    <n v="0"/>
+    <n v="4176.2249999999995"/>
+    <n v="773.375"/>
+    <n v="4949.5999999999995"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110009"/>
+    <s v="WH Periodic doors"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="21"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="2790"/>
+    <n v="310"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="20"/>
+    <n v="186"/>
+    <n v="0"/>
+    <n v="418.5"/>
+    <n v="77.5"/>
+    <n v="496"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110010"/>
+    <s v="WH Periodic CCTV"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="22"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="450"/>
+    <n v="50"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="21"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="67.5"/>
+    <n v="12.5"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110011"/>
+    <s v="WH Periodic Pest Con"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="23"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="30240"/>
+    <n v="3360"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="22"/>
+    <n v="2016"/>
+    <n v="0"/>
+    <n v="4536"/>
+    <n v="840"/>
+    <n v="5376"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110012"/>
+    <s v="Warehouses Consumabl"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="24"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="881464.26600000006"/>
+    <n v="97940.474000000002"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.21"/>
+    <n v="0.23"/>
+    <x v="23"/>
+    <n v="58764.284399999997"/>
+    <n v="0"/>
+    <n v="185107.49586"/>
+    <n v="22526.309020000001"/>
+    <n v="207633.80488000001"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110017"/>
+    <s v="Offices Periodic PC"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110019"/>
+    <s v="Warehouses Material"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="25"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="229427.32500000001"/>
+    <n v="25491.925000000003"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.18"/>
+    <x v="24"/>
+    <n v="15295.154999999999"/>
+    <n v="0"/>
+    <n v="34414.098749999997"/>
+    <n v="4588.5465000000004"/>
+    <n v="39002.645250000001"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110021"/>
+    <s v="warehouse devices li"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061110022"/>
+    <s v="Offices devices lice"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.08"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061120100"/>
+    <s v="Vehicles Repair"/>
+    <s v="Maintainance"/>
+    <s v="Variable"/>
+    <s v="Maintainance"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1810965.93"/>
+    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <n v="0.18"/>
+    <x v="25"/>
+    <n v="108657.9558"/>
+    <n v="36219.318599999999"/>
+    <n v="0"/>
+    <n v="325973.86739999999"/>
+    <n v="325973.86739999999"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060020100"/>
+    <s v="Medical Insurance"/>
+    <s v="Medical Insurance"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="27"/>
+    <n v="0.35"/>
+    <n v="0.65"/>
+    <n v="271283.95"/>
+    <n v="503813.05"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.08"/>
+    <n v="0.08"/>
+    <x v="26"/>
+    <n v="46505.82"/>
+    <n v="151143.91499999998"/>
+    <n v="21702.716"/>
+    <n v="40305.044000000002"/>
+    <n v="62007.76"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060020500"/>
+    <s v="Training"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.65"/>
+    <n v="0.35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.15"/>
+    <n v="0.12"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061090000"/>
+    <s v="Packing"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.03"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061140200"/>
+    <s v="Legal Fees"/>
+    <s v="Other"/>
+    <s v="Constant"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.08"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061140400"/>
+    <s v="Consulting Fees"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="28"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6150"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.08"/>
+    <m/>
+    <x v="27"/>
+    <n v="369"/>
+    <n v="0"/>
+    <n v="492"/>
+    <n v="0"/>
+    <n v="492"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061140500"/>
+    <s v="Microsoft &amp; SAP Fees"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061160100"/>
+    <s v="Advertising"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061160200"/>
+    <s v="Sales Offers"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.08"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061160300"/>
+    <s v="Visibility"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061160500"/>
+    <s v="Listing Fees"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061160700"/>
+    <s v="Scientific Support"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.15"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061161018"/>
+    <s v="SFDA Registration Fe"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061169900"/>
+    <s v="Other Marketing Exp."/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061169901"/>
+    <s v="Pharma Branding"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061169903"/>
+    <s v="Digital Marketing"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061169907"/>
+    <s v="Corporate Marketing"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061169908"/>
+    <s v="Exhibition / Event A"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061169912"/>
+    <s v="Vendor Sponsored Cam"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061180000"/>
+    <s v="Exhibitions Expenses"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="40200"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <m/>
+    <x v="28"/>
+    <n v="2412"/>
+    <n v="0"/>
+    <n v="6030"/>
+    <n v="0"/>
+    <n v="6030"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061210000"/>
+    <s v="Training Expenses"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061220000"/>
+    <s v="Conference &amp; Meeting"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061230100"/>
+    <s v="News Papers"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061230200"/>
+    <s v="Bids,Tenders Booklet"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061250000"/>
+    <s v="Charity"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.08"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061260000"/>
+    <s v="Penalty"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="30"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="2673.6000000000004"/>
+    <n v="668.40000000000009"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.05"/>
+    <n v="0.1"/>
+    <x v="29"/>
+    <n v="200.51999999999998"/>
+    <n v="0"/>
+    <n v="133.68000000000004"/>
+    <n v="66.840000000000018"/>
+    <n v="200.52000000000004"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061270000"/>
+    <s v="Bad &amp; Doubtful Debts"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061290000"/>
+    <s v="Material Damage Exp."/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Others under Assets Depreciation"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061990000"/>
+    <s v="Miscellaneous"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.02"/>
+    <n v="0.1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0070010400"/>
+    <s v="TRF Commission"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="31"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="9238.81"/>
+    <n v="3959.49"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <x v="30"/>
+    <n v="791.89799999999991"/>
+    <n v="0"/>
+    <n v="92.388099999999994"/>
+    <n v="39.594899999999996"/>
+    <n v="131.983"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0070010701"/>
+    <s v="Interest on Lease Liability-Manual"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="32"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="228961.53699999998"/>
+    <n v="98126.372999999992"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <x v="31"/>
+    <n v="19625.274599999997"/>
+    <n v="0"/>
+    <n v="2289.61537"/>
+    <n v="981.2637299999999"/>
+    <n v="3270.8791000000001"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0070010700"/>
+    <s v="Interest on Lease La"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Other"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010300"/>
+    <s v="GOSI"/>
+    <s v="GOSI"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="33"/>
+    <n v="0.2"/>
+    <n v="0.8"/>
+    <n v="230902.33799999999"/>
+    <n v="923609.35199999996"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="0.04"/>
+    <n v="0.08"/>
+    <x v="32"/>
+    <n v="69270.701399999991"/>
+    <n v="230902.33799999999"/>
+    <n v="9236.0935200000004"/>
+    <n v="73888.748160000003"/>
+    <n v="83124.841679999998"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060011000"/>
+    <s v="Airfare Tickets"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="34"/>
+    <n v="0.4"/>
+    <n v="0.6"/>
+    <n v="168752.54"/>
+    <n v="253128.80999999997"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="0.08"/>
+    <n v="0.06"/>
+    <x v="33"/>
+    <n v="25312.880999999998"/>
+    <n v="50625.761999999995"/>
+    <n v="13500.203200000002"/>
+    <n v="15187.728599999997"/>
+    <n v="28687.931799999998"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060011300"/>
+    <s v="End of Service Award"/>
+    <s v="Other"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="35"/>
+    <n v="0.1"/>
+    <n v="0.6"/>
+    <n v="21282.2"/>
+    <n v="127693.2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="0.12"/>
+    <x v="34"/>
+    <n v="12769.32"/>
+    <n v="38307.96"/>
+    <n v="1489.7540000000001"/>
+    <n v="15323.183999999999"/>
+    <n v="16812.937999999998"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060020300"/>
+    <s v="Recruitment Expense"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.06"/>
+    <n v="0.12"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060020600"/>
+    <s v="Medical Inspections-"/>
+    <s v="Other"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.45"/>
+    <n v="0.55000000000000004"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.08"/>
+    <n v="0.12"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010200"/>
+    <s v="Overtime"/>
+    <s v="Overtime"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="36"/>
+    <n v="0.6"/>
+    <n v="0.4"/>
+    <n v="557254.19999999995"/>
+    <n v="371502.80000000005"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.12"/>
+    <n v="0.08"/>
+    <x v="35"/>
+    <n v="55725.42"/>
+    <n v="55725.420000000006"/>
+    <n v="66870.503999999986"/>
+    <n v="29720.224000000006"/>
+    <n v="96590.727999999988"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061120200"/>
+    <s v="Vehicles Fuel"/>
+    <s v="Petrol"/>
+    <s v="Constant"/>
+    <s v="Petrol"/>
+    <s v="Fuel"/>
+    <s v="OpEx"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5560548.5700000003"/>
+    <x v="0"/>
+    <x v="11"/>
+    <m/>
+    <n v="0.3"/>
+    <x v="36"/>
+    <n v="333632.9142"/>
+    <n v="778476.79980000015"/>
+    <n v="0"/>
+    <n v="1668164.571"/>
+    <n v="1668164.571"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061170000"/>
+    <s v="Physical Inventory"/>
+    <s v="Phys. Inventory Expenses"/>
+    <s v="Constant"/>
+    <s v="Physical Inventory Expenses"/>
+    <s v="Others under Assets Depreciation"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.05"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061010000"/>
+    <s v="Rent"/>
+    <s v="Rental Cost"/>
+    <s v="Constant"/>
+    <s v="Rental Cost"/>
+    <s v="WH Rent"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="0.01"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061240000"/>
+    <s v="Safety"/>
+    <s v="Safety"/>
+    <s v="Constant"/>
+    <s v="Safety"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061080000"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Variable"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061080001"/>
+    <s v="Pharmacies operation"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Variable"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061080002"/>
+    <s v="Warehouses operation"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Variable"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.18"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061080003"/>
+    <s v="Offices operational"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Variable"/>
+    <s v="Stationery&amp;Printing"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061190000"/>
+    <s v="Subscription"/>
+    <s v="Subscription"/>
+    <s v="Constant"/>
+    <s v="Subscription"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061060000"/>
+    <s v="Telephone &amp; Postage"/>
+    <s v="Telephone &amp; Postage"/>
+    <s v="Variable"/>
+    <s v="Telephone &amp; Postage"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="38"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="290358.03200000001"/>
+    <n v="72589.508000000002"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="0.18"/>
+    <x v="37"/>
+    <n v="21776.852399999996"/>
+    <n v="0"/>
+    <n v="29035.803200000002"/>
+    <n v="13066.111440000001"/>
+    <n v="42101.914640000003"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061030200"/>
+    <s v="Transportation"/>
+    <s v="Transportation"/>
+    <s v="Variable"/>
+    <s v="Flight &amp; Hotels Expenses"/>
+    <s v="Utilities, Consumables, Maintenance, …"/>
+    <s v="OpEx"/>
+    <x v="39"/>
+    <n v="0.7"/>
+    <n v="0.3"/>
+    <n v="11118.862999999999"/>
+    <n v="4765.2269999999999"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.03"/>
+    <n v="0.25"/>
+    <x v="38"/>
+    <n v="953.04539999999997"/>
+    <n v="0"/>
+    <n v="333.56588999999997"/>
+    <n v="1191.30675"/>
+    <n v="1524.87264"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010600"/>
+    <s v="Transportation Allow"/>
+    <s v="Transportation Allow"/>
+    <s v="Variable"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="40"/>
+    <n v="0.3"/>
+    <n v="0.7"/>
+    <n v="214182.753"/>
+    <n v="499759.75699999998"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.04"/>
+    <n v="0.08"/>
+    <x v="39"/>
+    <n v="42836.550600000002"/>
+    <n v="74963.96355"/>
+    <n v="8567.3101200000001"/>
+    <n v="39980.780559999999"/>
+    <n v="48548.090680000001"/>
+  </r>
+  <r>
+    <s v="Employees Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0060010400"/>
+    <s v="Vacation Allowance"/>
+    <s v="Vacation Allowance"/>
+    <s v="Constant"/>
+    <s v="Labor Salary"/>
+    <s v="Labor Salary"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <n v="0.7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <n v="0.12"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069010100"/>
+    <s v="Dep.- Motor Vehicles"/>
+    <s v="Vehicle Depreciation"/>
+    <s v="Constant"/>
+    <s v="Vehicle Depreciation"/>
+    <s v="Fleet CapEx (Fleet Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="12"/>
+    <m/>
+    <n v="0.28000000000000003"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0061200000"/>
+    <s v="Car Rental Expenses"/>
+    <s v="Vehicle Depreciation"/>
+    <s v="Variable"/>
+    <s v="Vehicle Rent"/>
+    <s v="Vehicle Rent"/>
+    <s v="OpEx"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1988066.11"/>
+    <x v="2"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1988066.11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069010700"/>
+    <s v="Dep-Building"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="Building Depr."/>
+    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="0.95"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.16"/>
+    <n v="0.22"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069010900"/>
+    <s v="Dep-Automated Logist"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="Building Depr."/>
+    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069019910"/>
+    <s v="Depreciation of RTU"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="WH Rent"/>
+    <s v="WH Rent"/>
+    <s v="OpEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.01"/>
+    <m/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069019911"/>
+    <s v="Depreciation of RTU-Manual"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="WH Rent"/>
+    <s v="WH Rent"/>
+    <s v="OpEx"/>
+    <x v="42"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="2021995.818"/>
+    <n v="224666.20200000002"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="5.9456000000000002E-2"/>
+    <m/>
+    <x v="40"/>
+    <n v="112333.10100000001"/>
+    <n v="0"/>
+    <n v="120219.783355008"/>
+    <n v="0"/>
+    <n v="120219.783355008"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069010300"/>
+    <s v="Dep-Furniture&amp;Fixtur"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="Equipments &amp; Furniture Depr."/>
+    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.09"/>
+    <n v="0.1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069019900"/>
+    <s v="Dep-Law Value Assets"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="Equipments &amp; Furniture Depr."/>
+    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="0.95"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069010500"/>
+    <s v="Dp-Lease Improvement"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="Lease Improvement Depr."/>
+    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="0.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.05"/>
+    <n v="0.1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069010200"/>
+    <s v="Dep-Office Equipment"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="Office Equipments Depr."/>
+    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="0.2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.09"/>
+    <n v="0.1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="General Expenses"/>
+    <n v="2025"/>
+    <s v="q2"/>
+    <m/>
+    <s v="0069010400"/>
+    <s v="Dp-Tool&amp;AirCondition"/>
+    <s v="WHs Depreciation"/>
+    <s v="Constant"/>
+    <s v="Tool &amp; Air-condition Depr."/>
+    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
+    <s v="CapEx"/>
+    <x v="2"/>
+    <n v="0.95"/>
+    <n v="0.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.16"/>
+    <n v="0.22"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A6002B7-30BA-C64F-875D-E11A382BCD3B}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B86" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="44">
+        <item x="5"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="30"/>
+        <item x="28"/>
+        <item x="18"/>
+        <item x="31"/>
+        <item x="4"/>
+        <item x="39"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="35"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="38"/>
+        <item x="34"/>
+        <item x="16"/>
+        <item x="40"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="24"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="3"/>
+        <item x="42"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="37"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="6"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="44">
+        <item x="2"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="27"/>
+        <item x="4"/>
+        <item x="30"/>
+        <item x="38"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="34"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="37"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="15"/>
+        <item x="26"/>
+        <item x="39"/>
+        <item x="23"/>
+        <item x="35"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="40"/>
+        <item x="12"/>
+        <item x="36"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="16"/>
+    <field x="17"/>
+    <field x="20"/>
+  </rowFields>
+  <rowItems count="83">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i r="2">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="26"/>
+    </i>
+    <i r="2">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="41"/>
+    </i>
+    <i r="2">
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Dist. COST VALUE " fld="21" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3009,18 +7661,703 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA6D9CE-4FA6-EA4A-B002-9EAD01494DD0}">
+  <dimension ref="A3:B86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="58">
+        <v>1</v>
+      </c>
+      <c r="B5" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <v>0</v>
+      </c>
+      <c r="B6" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <v>0</v>
+      </c>
+      <c r="B8" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B9" s="56">
+        <v>61048.095199999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B10" s="56">
+        <v>61048.095199999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="59">
+        <v>4120017.0721970266</v>
+      </c>
+      <c r="B11" s="56">
+        <v>61048.095199999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B12" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="59">
+        <v>0</v>
+      </c>
+      <c r="B14" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B15" s="56">
+        <v>54171.608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="B16" s="56">
+        <v>54171.608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>1835767.4519039998</v>
+      </c>
+      <c r="B17" s="56">
+        <v>54171.608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="B18" s="56">
+        <v>113060.57150000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="56">
+        <v>113060.57150000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="59">
+        <v>0</v>
+      </c>
+      <c r="B20" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="59">
+        <v>11144.84806</v>
+      </c>
+      <c r="B21" s="56">
+        <v>727.47050000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="59">
+        <v>2014109.1356449919</v>
+      </c>
+      <c r="B22" s="56">
+        <v>112333.10100000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="B23" s="56">
+        <v>162762.44545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="58">
+        <v>0.1105</v>
+      </c>
+      <c r="B24" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>0</v>
+      </c>
+      <c r="B25" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="B26" s="56">
+        <v>77313.582500000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="59">
+        <v>951659.9155</v>
+      </c>
+      <c r="B27" s="56">
+        <v>77313.582500000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="56">
+        <v>85448.862949999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="59">
+        <v>1263089.5559700001</v>
+      </c>
+      <c r="B29" s="56">
+        <v>85448.862949999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="B30" s="56">
+        <v>1769700.2862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="58">
+        <v>0</v>
+      </c>
+      <c r="B31" s="56">
+        <v>29486.5206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
+        <v>0</v>
+      </c>
+      <c r="B32" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="59">
+        <v>368581.50750000001</v>
+      </c>
+      <c r="B33" s="56">
+        <v>29486.5206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="B34" s="56">
+        <v>108657.9558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="59">
+        <v>1340114.7881999998</v>
+      </c>
+      <c r="B35" s="56">
+        <v>108657.9558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B36" s="56">
+        <v>333632.9142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="59">
+        <v>2780274.2850000001</v>
+      </c>
+      <c r="B37" s="56">
+        <v>333632.9142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="58">
+        <v>0.15</v>
+      </c>
+      <c r="B38" s="56">
+        <v>301370.18940000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="59">
+        <v>547593.90517000004</v>
+      </c>
+      <c r="B39" s="56">
+        <v>42836.550600000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="59">
+        <v>720715.43200000003</v>
+      </c>
+      <c r="B40" s="56">
+        <v>55725.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="59">
+        <v>2545919.1733360002</v>
+      </c>
+      <c r="B41" s="56">
+        <v>202808.2188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="B42" s="56">
+        <v>43005.901799999992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="59">
+        <v>0</v>
+      </c>
+      <c r="B43" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="59">
+        <v>188725.5552</v>
+      </c>
+      <c r="B44" s="56">
+        <v>17693.020799999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="59">
+        <v>317254.77519999997</v>
+      </c>
+      <c r="B45" s="56">
+        <v>25312.880999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="B46" s="56">
+        <v>69270.701399999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="59">
+        <v>771213.80891999998</v>
+      </c>
+      <c r="B47" s="56">
+        <v>69270.701399999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="B48" s="56">
+        <v>567615.07499999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="59">
+        <v>0</v>
+      </c>
+      <c r="B49" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="59">
+        <v>144931.78200000001</v>
+      </c>
+      <c r="B50" s="56">
+        <v>12769.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="59">
+        <v>515439.505</v>
+      </c>
+      <c r="B51" s="56">
+        <v>46505.82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="59">
+        <v>5041037.6887500007</v>
+      </c>
+      <c r="B52" s="56">
+        <v>508339.935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="58">
+        <v>0.35</v>
+      </c>
+      <c r="B53" s="56">
+        <v>150357.2928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="59">
+        <v>1628870.6719999998</v>
+      </c>
+      <c r="B54" s="56">
+        <v>150357.2928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="B55" s="56">
+        <v>390.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="59">
+        <v>5005.7700000000004</v>
+      </c>
+      <c r="B56" s="56">
+        <v>390.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" s="56">
+        <v>165913.6752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="59">
+        <v>0</v>
+      </c>
+      <c r="B58" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="59">
+        <v>390</v>
+      </c>
+      <c r="B59" s="56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="59">
+        <v>2418</v>
+      </c>
+      <c r="B60" s="56">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="59">
+        <v>2940.96</v>
+      </c>
+      <c r="B61" s="56">
+        <v>200.51999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="59">
+        <v>5289</v>
+      </c>
+      <c r="B62" s="56">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="59">
+        <v>12274.419</v>
+      </c>
+      <c r="B63" s="56">
+        <v>791.89799999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="59">
+        <v>13406.17196</v>
+      </c>
+      <c r="B64" s="56">
+        <v>953.04539999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="59">
+        <v>17323.944</v>
+      </c>
+      <c r="B65" s="56">
+        <v>1231.56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="59">
+        <v>22089.599999999999</v>
+      </c>
+      <c r="B66" s="56">
+        <v>1699.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="59">
+        <v>24129.300000000003</v>
+      </c>
+      <c r="B67" s="56">
+        <v>1856.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="59">
+        <v>26208</v>
+      </c>
+      <c r="B68" s="56">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="59">
+        <v>31758</v>
+      </c>
+      <c r="B69" s="56">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="59">
+        <v>39539.754200000003</v>
+      </c>
+      <c r="B70" s="56">
+        <v>2810.8830000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="59">
+        <v>95652.703999999998</v>
+      </c>
+      <c r="B71" s="56">
+        <v>7320.36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="59">
+        <v>118981.91010000001</v>
+      </c>
+      <c r="B72" s="56">
+        <v>8979.7667999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="59">
+        <v>122545.77719999998</v>
+      </c>
+      <c r="B73" s="56">
+        <v>8753.2697999999982</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="59">
+        <v>141675.40912</v>
+      </c>
+      <c r="B74" s="56">
+        <v>10842.505799999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="59">
+        <v>200621.44975</v>
+      </c>
+      <c r="B75" s="56">
+        <v>15295.154999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="59">
+        <v>299068.77295999997</v>
+      </c>
+      <c r="B76" s="56">
+        <v>21776.852399999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="59">
+        <v>304191.75630000001</v>
+      </c>
+      <c r="B77" s="56">
+        <v>19625.274599999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="59">
+        <v>713006.65072000003</v>
+      </c>
+      <c r="B78" s="56">
+        <v>58764.284399999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B79" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="59">
+        <v>0</v>
+      </c>
+      <c r="B81" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" s="56"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" s="56"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="59">
+        <v>37999289.706412025</v>
+      </c>
+      <c r="B84" s="56"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B85" s="56"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B86" s="56">
+        <v>2160743.0063499999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C848AD37-E748-434C-8006-059E7251C6A6}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF40ED33"/>
   </sheetPr>
   <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="Z87" sqref="Z87"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3046,9 +8383,9 @@
     <col min="20" max="20" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3218,7 +8555,7 @@
         <v>1143764.8537499998</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>154</v>
       </c>
@@ -3304,7 +8641,7 @@
         <v>1859643.8526429732</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>166</v>
       </c>
@@ -3382,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -3468,7 +8805,7 @@
         <v>170748.90841599999</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
@@ -3552,7 +8889,7 @@
         <v>2677.0914400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>166</v>
       </c>
@@ -3632,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>166</v>
       </c>
@@ -3716,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>166</v>
       </c>
@@ -3800,7 +9137,7 @@
         <v>19032.936000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>166</v>
       </c>
@@ -3882,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>166</v>
       </c>
@@ -3966,7 +9303,7 @@
         <v>14588.782999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>166</v>
       </c>
@@ -4048,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>166</v>
       </c>
@@ -4132,7 +9469,7 @@
         <v>205077.27107999998</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>166</v>
       </c>
@@ -4214,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>166</v>
       </c>
@@ -4296,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>166</v>
       </c>
@@ -4378,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>166</v>
       </c>
@@ -4462,7 +9799,7 @@
         <v>1970.4960000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>166</v>
       </c>
@@ -4546,7 +9883,7 @@
         <v>4497.4128000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>166</v>
       </c>
@@ -4626,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>154</v>
       </c>
@@ -4712,7 +10049,7 @@
         <v>123701.732</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>166</v>
       </c>
@@ -4794,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>166</v>
       </c>
@@ -4876,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
@@ -4958,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>166</v>
       </c>
@@ -5042,7 +10379,7 @@
         <v>21701.1031</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>154</v>
       </c>
@@ -5128,7 +10465,7 @@
         <v>261284.58855400002</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>154</v>
       </c>
@@ -5214,7 +10551,7 @@
         <v>200476.3904</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>154</v>
       </c>
@@ -5298,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>166</v>
       </c>
@@ -5382,7 +10719,7 @@
         <v>28190.515080000001</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>166</v>
       </c>
@@ -5466,7 +10803,7 @@
         <v>93373.981899999999</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>166</v>
       </c>
@@ -5550,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>166</v>
       </c>
@@ -5634,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>166</v>
       </c>
@@ -5716,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>166</v>
       </c>
@@ -5798,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>166</v>
       </c>
@@ -5884,7 +11221,7 @@
         <v>58976.735999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>166</v>
       </c>
@@ -5968,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>154</v>
       </c>
@@ -6054,7 +11391,7 @@
         <v>325.04999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>166</v>
       </c>
@@ -6136,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>166</v>
       </c>
@@ -6220,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>166</v>
       </c>
@@ -6302,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
@@ -6384,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>166</v>
       </c>
@@ -6466,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>166</v>
       </c>
@@ -6548,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>166</v>
       </c>
@@ -6630,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>166</v>
       </c>
@@ -6712,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>166</v>
       </c>
@@ -6796,7 +12133,7 @@
         <v>4531.2</v>
       </c>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>166</v>
       </c>
@@ -6880,7 +12217,7 @@
         <v>4949.5999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>166</v>
       </c>
@@ -6964,7 +12301,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>166</v>
       </c>
@@ -7048,7 +12385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>166</v>
       </c>
@@ -7132,7 +12469,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>166</v>
       </c>
@@ -7216,7 +12553,7 @@
         <v>207633.80488000001</v>
       </c>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
@@ -7298,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>166</v>
       </c>
@@ -7382,7 +12719,7 @@
         <v>39002.645250000001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>166</v>
       </c>
@@ -7464,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>166</v>
       </c>
@@ -7546,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>166</v>
       </c>
@@ -7630,7 +12967,7 @@
         <v>325973.86739999999</v>
       </c>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>154</v>
       </c>
@@ -7716,7 +13053,7 @@
         <v>62007.76</v>
       </c>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>154</v>
       </c>
@@ -7800,7 +13137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>166</v>
       </c>
@@ -7880,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>166</v>
       </c>
@@ -7960,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>166</v>
       </c>
@@ -8042,7 +13379,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>166</v>
       </c>
@@ -8122,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>166</v>
       </c>
@@ -8204,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>166</v>
       </c>
@@ -8284,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>166</v>
       </c>
@@ -8366,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>166</v>
       </c>
@@ -8444,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>166</v>
       </c>
@@ -8526,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>166</v>
       </c>
@@ -8606,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>166</v>
       </c>
@@ -8686,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>166</v>
       </c>
@@ -8768,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>166</v>
       </c>
@@ -8848,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>166</v>
       </c>
@@ -8930,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>166</v>
       </c>
@@ -9010,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>166</v>
       </c>
@@ -9090,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>166</v>
       </c>
@@ -9172,7 +14509,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>166</v>
       </c>
@@ -9254,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>166</v>
       </c>
@@ -9336,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>166</v>
       </c>
@@ -9418,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>166</v>
       </c>
@@ -9500,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>166</v>
       </c>
@@ -9580,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>166</v>
       </c>
@@ -9664,7 +15001,7 @@
         <v>200.52000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>166</v>
       </c>
@@ -9746,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>166</v>
       </c>
@@ -9828,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>166</v>
       </c>
@@ -9910,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>166</v>
       </c>
@@ -9994,7 +15331,7 @@
         <v>131.983</v>
       </c>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="46" t="s">
         <v>166</v>
       </c>
@@ -10078,7 +15415,7 @@
         <v>3270.8791000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>166</v>
       </c>
@@ -10246,7 +15583,7 @@
         <v>83124.841679999998</v>
       </c>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>154</v>
       </c>
@@ -10332,7 +15669,7 @@
         <v>28687.931799999998</v>
       </c>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>154</v>
       </c>
@@ -10418,7 +15755,7 @@
         <v>16812.937999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>154</v>
       </c>
@@ -10502,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>154</v>
       </c>
@@ -10672,7 +16009,7 @@
         <v>96590.727999999988</v>
       </c>
     </row>
-    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>166</v>
       </c>
@@ -10756,7 +16093,7 @@
         <v>1668164.571</v>
       </c>
     </row>
-    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>166</v>
       </c>
@@ -10836,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>166</v>
       </c>
@@ -10916,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>166</v>
       </c>
@@ -10998,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>166</v>
       </c>
@@ -11080,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>166</v>
       </c>
@@ -11162,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>166</v>
       </c>
@@ -11244,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>166</v>
       </c>
@@ -11326,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>166</v>
       </c>
@@ -11408,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>166</v>
       </c>
@@ -11492,7 +16829,7 @@
         <v>42101.914640000003</v>
       </c>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>166</v>
       </c>
@@ -11576,7 +16913,7 @@
         <v>1524.87264</v>
       </c>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>154</v>
       </c>
@@ -11662,7 +16999,7 @@
         <v>48548.090680000001</v>
       </c>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>154</v>
       </c>
@@ -11746,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>166</v>
       </c>
@@ -11828,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>166</v>
       </c>
@@ -11910,7 +17247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>166</v>
       </c>
@@ -11992,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>166</v>
       </c>
@@ -12070,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>166</v>
       </c>
@@ -12150,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="46" t="s">
         <v>166</v>
       </c>
@@ -12232,7 +17569,7 @@
         <v>120219.783355008</v>
       </c>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>166</v>
       </c>
@@ -12314,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>166</v>
       </c>
@@ -12396,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>166</v>
       </c>
@@ -12478,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>166</v>
       </c>
@@ -12560,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>166</v>
       </c>
@@ -12642,15 +17979,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="E117" s="41"/>
       <c r="F117" s="42"/>
       <c r="L117" s="42"/>
       <c r="M117" s="42"/>
+      <c r="U117" s="44">
+        <f>SUM(U2:U116)</f>
+        <v>29304978.206862014</v>
+      </c>
+      <c r="V117" s="44">
+        <f>SUM(V2:V116)</f>
+        <v>2160743.0063499999</v>
+      </c>
+      <c r="W117" s="44">
+        <f>SUM(W2:W116)</f>
+        <v>6533568.4932000004</v>
+      </c>
       <c r="Y117" s="43"/>
       <c r="Z117" s="44"/>
     </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L118"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
@@ -12719,15 +18068,7 @@
       <c r="X141" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z118" xr:uid="{F41BD747-502C-4D74-A208-9CEA9602ADCB}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="0060010100"/>
-        <filter val="0060010200"/>
-        <filter val="0060010300"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z118" xr:uid="{F41BD747-502C-4D74-A208-9CEA9602ADCB}"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12736,15 +18077,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9343916472E5745B9D479015FB9E85A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7bdc0cd2b3a9af24a0562f3d3990c1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3bb9dc88-f2da-4766-8908-3ca1e2958d73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89129e226d424210633e0aa63ac2fd92" ns3:_="">
     <xsd:import namespace="3bb9dc88-f2da-4766-8908-3ca1e2958d73"/>
@@ -12950,6 +18282,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12959,14 +18300,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0263AF5-3235-4A9E-A81A-1A30FD513646}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C27C152-53A3-4D0A-9358-C65218B74B3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12980,6 +18313,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0263AF5-3235-4A9E-A81A-1A30FD513646}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haithamdata/Downloads/Mail Downloads/cost_dashboard_vis3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D517F132-EE8C-F44A-A138-570763911861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629D2A9-8AB6-2941-AB15-DAAD69CB827D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="160" yWindow="500" windowWidth="38080" windowHeight="24160" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="38080" windowHeight="24160" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="Q2-25 TCO " sheetId="4" r:id="rId2"/>
+    <sheet name="Q2-25 TCO " sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Q2-25 TCO '!$A$1:$Z$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q2-25 TCO '!$A$1:$Z$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1123,7 +1119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="293">
   <si>
     <t>0060010100</t>
   </si>
@@ -2001,16 +1997,7 @@
     <t xml:space="preserve">PROCEED 3pl COST VALUE </t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of Dist. COST VALUE </t>
+    <t>q3</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2260,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2364,14 +2351,6 @@
     <xf numFmtId="168" fontId="4" fillId="18" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2383,41 +2362,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{707BD2B3-8AA8-4307-A84B-EBB69806C7F2}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2441,4600 +2386,6 @@
   <person displayName="Emad Madi" id="{E780D4DE-2E26-4678-A303-F673B9582D47}" userId="S::emad.madi@al-dawaa.com::0af5d38f-ceab-4817-8768-6bebb9b99950" providerId="AD"/>
   <person displayName="Emad Madi" id="{EE5F9854-9370-400A-874C-C50929630982}" userId="S::f5d7f697-1a69-48dc-80eb-7aee3a1b835c@dbsmena.onmicrosoft.com::0af5d38f-ceab-4817-8768-6bebb9b99950" providerId="AD"/>
 </personList>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Haitham Attia" refreshedDate="45919.77389895833" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="141" xr:uid="{FB61C7E8-881C-5D4D-AF15-90CDF8D916E3}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Z1048576" sheet="Q2-25 TCO "/>
-  </cacheSource>
-  <cacheFields count="26">
-    <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Year" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2025" maxValue="2025"/>
-    </cacheField>
-    <cacheField name="quarter" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Warehouse " numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GL Account No." numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GL Account Name" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GL Accounts Group" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Cost Type" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="TCO Model Categories" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Main Categories" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="OpEx /CapEx" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="total incured cost" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="8472332.25" count="43">
-        <n v="8472332.25"/>
-        <n v="6104809.5199999996"/>
-        <m/>
-        <n v="2166864.3199999998"/>
-        <n v="14549.41"/>
-        <n v="0"/>
-        <n v="122006"/>
-        <n v="145887.82999999999"/>
-        <n v="1553615.69"/>
-        <n v="20526"/>
-        <n v="46848.05"/>
-        <n v="1405701.5"/>
-        <n v="149662.78"/>
-        <n v="3380136.98"/>
-        <n v="2505954.88"/>
-        <n v="180708.43"/>
-        <n v="491442.01"/>
-        <n v="294883.68"/>
-        <n v="6501"/>
-        <n v="28320"/>
-        <n v="30935"/>
-        <n v="3100"/>
-        <n v="500"/>
-        <n v="33600"/>
-        <n v="979404.74"/>
-        <n v="254919.25"/>
-        <n v="1810965.93"/>
-        <n v="775097"/>
-        <n v="6150"/>
-        <n v="40200"/>
-        <n v="3342"/>
-        <n v="13198.3"/>
-        <n v="327087.90999999997"/>
-        <n v="1154511.69"/>
-        <n v="421881.35"/>
-        <n v="212822"/>
-        <n v="928757"/>
-        <n v="5560548.5700000003"/>
-        <n v="362947.54"/>
-        <n v="15884.09"/>
-        <n v="713942.51"/>
-        <n v="1988066.11"/>
-        <n v="2246662.02"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="WH COST SHARE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="TRS COST SHARE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="WH COST VALUE" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="3540789.5215999996"/>
-    </cacheField>
-    <cacheField name="TRS COST VALUE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5930632.5749999993"/>
-    </cacheField>
-    <cacheField name="Dist. COST SHARE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.2" count="9">
-        <n v="0.06"/>
-        <n v="0.01"/>
-        <n v="0"/>
-        <n v="2.5000000000000001E-2"/>
-        <n v="0.05"/>
-        <n v="5.5E-2"/>
-        <n v="0.2"/>
-        <n v="0.02"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Last Mile (TRS) COST SHARE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1" count="14">
-        <n v="0.3"/>
-        <n v="2.5000000000000001E-2"/>
-        <m/>
-        <n v="0.05"/>
-        <n v="0.15"/>
-        <n v="0.35"/>
-        <n v="0"/>
-        <n v="0.2"/>
-        <n v="0.4"/>
-        <n v="0.02"/>
-        <n v="0.25"/>
-        <n v="0.14000000000000001"/>
-        <n v="0.1105"/>
-        <n v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Proceed 3PL (WH) COST SHARE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Proceed 3PL (TRS) COST SHARE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="PHs COST VALUE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="37999289.706412025" count="43">
-        <n v="5041037.6887500007"/>
-        <n v="4120017.0721970266"/>
-        <n v="0"/>
-        <n v="1835767.4519039998"/>
-        <n v="11144.84806"/>
-        <n v="95652.703999999998"/>
-        <n v="122545.77719999998"/>
-        <n v="1263089.5559700001"/>
-        <n v="17323.944"/>
-        <n v="39539.754200000003"/>
-        <n v="951659.9155"/>
-        <n v="118981.91010000001"/>
-        <n v="2545919.1733360002"/>
-        <n v="1628870.6719999998"/>
-        <n v="141675.40912"/>
-        <n v="368581.50750000001"/>
-        <n v="188725.5552"/>
-        <n v="5005.7700000000004"/>
-        <n v="22089.599999999999"/>
-        <n v="24129.300000000003"/>
-        <n v="2418"/>
-        <n v="390"/>
-        <n v="26208"/>
-        <n v="713006.65072000003"/>
-        <n v="200621.44975"/>
-        <n v="1340114.7881999998"/>
-        <n v="515439.505"/>
-        <n v="5289"/>
-        <n v="31758"/>
-        <n v="2940.96"/>
-        <n v="12274.419"/>
-        <n v="304191.75630000001"/>
-        <n v="771213.80891999998"/>
-        <n v="317254.77519999997"/>
-        <n v="144931.78200000001"/>
-        <n v="720715.43200000003"/>
-        <n v="2780274.2850000001"/>
-        <n v="299068.77295999997"/>
-        <n v="13406.17196"/>
-        <n v="547593.90517000004"/>
-        <n v="2014109.1356449919"/>
-        <n v="37999289.706412025"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Dist. COST VALUE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="508339.935"/>
-    </cacheField>
-    <cacheField name="Last Mile COST VALUE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1988066.11"/>
-    </cacheField>
-    <cacheField name="Proceed 3PL (WH) COST VALUE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="357131.46680657129"/>
-    </cacheField>
-    <cacheField name="Proceed 3PL (TRS) COST VALUE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1668164.571"/>
-    </cacheField>
-    <cacheField name="PROCEED 3pl COST VALUE " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1859643.8526429732"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="141">
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010100"/>
-    <s v="Basic Salaries"/>
-    <s v="Basic Salaries"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="0"/>
-    <n v="0.3"/>
-    <n v="0.7"/>
-    <n v="2541699.6749999998"/>
-    <n v="5930632.5749999993"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.1"/>
-    <n v="0.15"/>
-    <x v="0"/>
-    <n v="508339.935"/>
-    <n v="1779189.7724999997"/>
-    <n v="254169.9675"/>
-    <n v="889594.88624999986"/>
-    <n v="1143764.8537499998"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060020200"/>
-    <s v="Hired Labor"/>
-    <s v="Basic Salaries"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="1"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.42"/>
-    <n v="3540789.5215999996"/>
-    <n v="2564019.9983999999"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.1008621"/>
-    <n v="0.58599869999999998"/>
-    <x v="1"/>
-    <n v="61048.095199999996"/>
-    <n v="64100.499960000001"/>
-    <n v="357131.46680657129"/>
-    <n v="1502512.385836402"/>
-    <n v="1859643.8526429732"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061050000"/>
-    <s v="Cargo &amp; Freight"/>
-    <s v="Cargo &amp; Freight"/>
-    <s v="Variable"/>
-    <s v="Cargo &amp; Freight"/>
-    <s v="Vehicle Rent"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010700"/>
-    <s v="Deputation Allowance"/>
-    <s v="Deputation Allowance"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="3"/>
-    <n v="0.02"/>
-    <n v="0.98"/>
-    <n v="43337.286399999997"/>
-    <n v="2123527.0335999997"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="0.02"/>
-    <n v="0.08"/>
-    <x v="3"/>
-    <n v="54171.608"/>
-    <n v="106176.35167999999"/>
-    <n v="866.74572799999999"/>
-    <n v="169882.16268799998"/>
-    <n v="170748.90841599999"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061040000"/>
-    <s v="Electricity &amp; Water"/>
-    <s v="Electricity &amp; Water"/>
-    <s v="Variable"/>
-    <s v="Electricity &amp;Water"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="4"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="13094.469000000001"/>
-    <n v="1454.941"/>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="0.18"/>
-    <n v="0.22"/>
-    <x v="4"/>
-    <n v="727.47050000000002"/>
-    <n v="0"/>
-    <n v="2357.0044200000002"/>
-    <n v="320.08702"/>
-    <n v="2677.0914400000001"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061140300"/>
-    <s v="Engineering Fees"/>
-    <s v="Engineering Fees"/>
-    <s v="Constant"/>
-    <s v="Engineering Fees"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.08"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100000"/>
-    <s v="Cleanlines&amp;Hospitali"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="5"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100002"/>
-    <s v="Warehouses housekeep"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="6"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="97604.800000000003"/>
-    <n v="24401.200000000001"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.18"/>
-    <x v="5"/>
-    <n v="7320.36"/>
-    <n v="0"/>
-    <n v="14640.72"/>
-    <n v="4392.2160000000003"/>
-    <n v="19032.936000000002"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100003"/>
-    <s v="Offices housekeeping"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100004"/>
-    <s v="Warehouse Packing"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="7"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="131299.04699999999"/>
-    <n v="14588.782999999999"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.1"/>
-    <x v="6"/>
-    <n v="8753.2697999999982"/>
-    <n v="0"/>
-    <n v="13129.904699999999"/>
-    <n v="1458.8783000000001"/>
-    <n v="14588.782999999999"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100005"/>
-    <s v="Pharmacies entertain"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100006"/>
-    <s v="Warehouse entertainm"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="8"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="1242892.5519999999"/>
-    <n v="310723.13799999998"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="0.12"/>
-    <n v="0.18"/>
-    <x v="7"/>
-    <n v="85448.862949999995"/>
-    <n v="0"/>
-    <n v="149147.10623999999"/>
-    <n v="55930.16483999999"/>
-    <n v="205077.27107999998"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100007"/>
-    <s v="Offices entertainmen"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100101"/>
-    <s v="Pharmacies employees"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061100102"/>
-    <s v="Warehouses employees"/>
-    <s v="Entertainments"/>
-    <s v="Variable"/>
-    <s v="Entertainments"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061030100"/>
-    <s v="Airfare Tickets - Bu"/>
-    <s v="Flight &amp; Hotels Expenses"/>
-    <s v="Variable"/>
-    <s v="Flight &amp; Hotels Expenses"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="9"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="14368.199999999999"/>
-    <n v="6157.8"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.03"/>
-    <n v="0.25"/>
-    <x v="8"/>
-    <n v="1231.56"/>
-    <n v="0"/>
-    <n v="431.04599999999994"/>
-    <n v="1539.45"/>
-    <n v="1970.4960000000001"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061030300"/>
-    <s v="Hotels&amp;Accommodation"/>
-    <s v="Flight &amp; Hotels Expenses"/>
-    <s v="Variable"/>
-    <s v="Flight &amp; Hotels Expenses"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="10"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="32793.635000000002"/>
-    <n v="14054.415000000001"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.03"/>
-    <n v="0.25"/>
-    <x v="9"/>
-    <n v="2810.8830000000003"/>
-    <n v="0"/>
-    <n v="983.80905000000007"/>
-    <n v="3513.6037500000002"/>
-    <n v="4497.4128000000001"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061150000"/>
-    <s v="Gifts &amp; Donation"/>
-    <s v="Gifts &amp; Donation"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.08"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060020400"/>
-    <s v="Government Relation"/>
-    <s v="Government Relation"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="11"/>
-    <n v="0.4"/>
-    <n v="0.6"/>
-    <n v="562280.6"/>
-    <n v="843420.9"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0.1"/>
-    <n v="0.08"/>
-    <x v="10"/>
-    <n v="77313.582500000004"/>
-    <n v="253026.27"/>
-    <n v="56228.06"/>
-    <n v="67473.672000000006"/>
-    <n v="123701.732"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061020100"/>
-    <s v="Gov.-Ph.'s License"/>
-    <s v="Governmental Fees"/>
-    <s v="Constant"/>
-    <s v="Governmental Fees"/>
-    <s v="Governmental &amp; Insurance Expenses"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061020200"/>
-    <s v="Gov.-CR Renewal Fees"/>
-    <s v="Governmental Fees"/>
-    <s v="Constant"/>
-    <s v="Governmental Fees"/>
-    <s v="Governmental &amp; Insurance Expenses"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061020300"/>
-    <s v="Gov. Commerce Chambe"/>
-    <s v="Governmental Fees"/>
-    <s v="Constant"/>
-    <s v="Governmental Fees"/>
-    <s v="Governmental &amp; Insurance Expenses"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061029900"/>
-    <s v="Gov.-Others"/>
-    <s v="Governmental Fees"/>
-    <s v="Constant"/>
-    <s v="Governmental Fees"/>
-    <s v="Governmental &amp; Insurance Expenses"/>
-    <s v="OpEx"/>
-    <x v="12"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="104763.946"/>
-    <n v="44898.833999999995"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.25"/>
-    <x v="11"/>
-    <n v="8979.7667999999994"/>
-    <n v="0"/>
-    <n v="10476.3946"/>
-    <n v="11224.708499999999"/>
-    <n v="21701.1031"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010500"/>
-    <s v="Housing Allowance"/>
-    <s v="Housing Allowance"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="13"/>
-    <n v="0.27"/>
-    <n v="0.73"/>
-    <n v="912636.98460000008"/>
-    <n v="2467499.9953999999"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="0.08"/>
-    <x v="12"/>
-    <n v="202808.2188"/>
-    <n v="370124.99930999998"/>
-    <n v="63884.58892200001"/>
-    <n v="197399.99963199999"/>
-    <n v="261284.58855400002"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060011100"/>
-    <s v="Commission&amp;Incentive"/>
-    <s v="Incentive"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="14"/>
-    <n v="0.4"/>
-    <n v="0.6"/>
-    <n v="1002381.952"/>
-    <n v="1503572.9279999998"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0.08"/>
-    <n v="0.08"/>
-    <x v="13"/>
-    <n v="150357.2928"/>
-    <n v="526250.5247999999"/>
-    <n v="80190.556160000007"/>
-    <n v="120285.83424"/>
-    <n v="200476.3904"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060011200"/>
-    <s v="Incentives"/>
-    <s v="Incentive"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.5"/>
-    <n v="0.5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.08"/>
-    <n v="0.08"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061130100"/>
-    <s v="Fire&amp;Thefty Ins."/>
-    <s v="Insurance"/>
-    <s v="Constant"/>
-    <s v="Insurance"/>
-    <s v="Governmental &amp; Insurance Expenses"/>
-    <s v="OpEx"/>
-    <x v="15"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="144566.74400000001"/>
-    <n v="36141.686000000002"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.18"/>
-    <x v="14"/>
-    <n v="10842.505799999999"/>
-    <n v="0"/>
-    <n v="21685.011600000002"/>
-    <n v="6505.5034800000003"/>
-    <n v="28190.515080000001"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061130200"/>
-    <s v="Vehicles Insurance"/>
-    <s v="Insurance"/>
-    <s v="Constant"/>
-    <s v="Insurance"/>
-    <s v="Governmental &amp; Insurance Expenses"/>
-    <s v="OpEx"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="491442.01"/>
-    <x v="0"/>
-    <x v="6"/>
-    <m/>
-    <n v="0.19"/>
-    <x v="15"/>
-    <n v="29486.5206"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="93373.981899999999"/>
-    <n v="93373.981899999999"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061070000"/>
-    <s v="IT Expenses"/>
-    <s v="IT Expenses"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0.1"/>
-    <n v="0.6"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061070100"/>
-    <s v="ERP, Software &amp; appl"/>
-    <s v="IT Expenses"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.5"/>
-    <n v="0.5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0.1"/>
-    <n v="0.4"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061070200"/>
-    <s v="Network, infrastruct"/>
-    <s v="IT Expenses"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061070300"/>
-    <s v="Security, &amp; Business"/>
-    <s v="IT Expenses"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.5"/>
-    <n v="0.5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061070400"/>
-    <s v="IT Operations"/>
-    <s v="IT Expenses"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="17"/>
-    <n v="0.5"/>
-    <n v="0.5"/>
-    <n v="147441.84"/>
-    <n v="147441.84"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0.1"/>
-    <n v="0.3"/>
-    <x v="16"/>
-    <n v="17693.020799999998"/>
-    <n v="29488.368000000002"/>
-    <n v="14744.184000000001"/>
-    <n v="44232.551999999996"/>
-    <n v="58976.735999999997"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061070500"/>
-    <s v="Cloud Services &amp; Dat"/>
-    <s v="IT Expenses"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0.1"/>
-    <n v="0.6"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010800"/>
-    <s v="Mobil Allowance"/>
-    <s v="Mobil Allowance"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="18"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="4550.7"/>
-    <n v="1950.3"/>
-    <x v="0"/>
-    <x v="8"/>
-    <n v="0.02"/>
-    <n v="0.12"/>
-    <x v="17"/>
-    <n v="390.06"/>
-    <n v="780.12"/>
-    <n v="91.013999999999996"/>
-    <n v="234.03599999999997"/>
-    <n v="325.04999999999995"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061120300"/>
-    <s v="Veh. License Fees"/>
-    <s v="Licence Fees"/>
-    <s v="Constant"/>
-    <s v="Licence Fees"/>
-    <s v="Governmental &amp; Insurance Expenses"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <m/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110000"/>
-    <s v="Repair&amp;Maintenance"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="5"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110001"/>
-    <s v="Ph Periodic  AC"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110002"/>
-    <s v="Ph Periodic  FF"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110003"/>
-    <s v="Ph Periodic doors"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110004"/>
-    <s v="Ph Periodc CCTV"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110005"/>
-    <s v="Ph Periodic Pest con"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110006"/>
-    <s v="Pharmacies Consumabl"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110007"/>
-    <s v="WH Periodic AC"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="19"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="25488"/>
-    <n v="2832"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="18"/>
-    <n v="1699.2"/>
-    <n v="0"/>
-    <n v="3823.2"/>
-    <n v="708"/>
-    <n v="4531.2"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110008"/>
-    <s v="WH Periodic FF"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="20"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="27841.5"/>
-    <n v="3093.5"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="19"/>
-    <n v="1856.1"/>
-    <n v="0"/>
-    <n v="4176.2249999999995"/>
-    <n v="773.375"/>
-    <n v="4949.5999999999995"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110009"/>
-    <s v="WH Periodic doors"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="21"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="2790"/>
-    <n v="310"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="20"/>
-    <n v="186"/>
-    <n v="0"/>
-    <n v="418.5"/>
-    <n v="77.5"/>
-    <n v="496"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110010"/>
-    <s v="WH Periodic CCTV"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="22"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="450"/>
-    <n v="50"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="21"/>
-    <n v="30"/>
-    <n v="0"/>
-    <n v="67.5"/>
-    <n v="12.5"/>
-    <n v="80"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110011"/>
-    <s v="WH Periodic Pest Con"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="23"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="30240"/>
-    <n v="3360"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="22"/>
-    <n v="2016"/>
-    <n v="0"/>
-    <n v="4536"/>
-    <n v="840"/>
-    <n v="5376"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110012"/>
-    <s v="Warehouses Consumabl"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="24"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="881464.26600000006"/>
-    <n v="97940.474000000002"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.21"/>
-    <n v="0.23"/>
-    <x v="23"/>
-    <n v="58764.284399999997"/>
-    <n v="0"/>
-    <n v="185107.49586"/>
-    <n v="22526.309020000001"/>
-    <n v="207633.80488000001"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110017"/>
-    <s v="Offices Periodic PC"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110019"/>
-    <s v="Warehouses Material"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="25"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="229427.32500000001"/>
-    <n v="25491.925000000003"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.18"/>
-    <x v="24"/>
-    <n v="15295.154999999999"/>
-    <n v="0"/>
-    <n v="34414.098749999997"/>
-    <n v="4588.5465000000004"/>
-    <n v="39002.645250000001"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110021"/>
-    <s v="warehouse devices li"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061110022"/>
-    <s v="Offices devices lice"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.08"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061120100"/>
-    <s v="Vehicles Repair"/>
-    <s v="Maintainance"/>
-    <s v="Variable"/>
-    <s v="Maintainance"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="26"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1810965.93"/>
-    <x v="0"/>
-    <x v="9"/>
-    <m/>
-    <n v="0.18"/>
-    <x v="25"/>
-    <n v="108657.9558"/>
-    <n v="36219.318599999999"/>
-    <n v="0"/>
-    <n v="325973.86739999999"/>
-    <n v="325973.86739999999"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060020100"/>
-    <s v="Medical Insurance"/>
-    <s v="Medical Insurance"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="27"/>
-    <n v="0.35"/>
-    <n v="0.65"/>
-    <n v="271283.95"/>
-    <n v="503813.05"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.08"/>
-    <n v="0.08"/>
-    <x v="26"/>
-    <n v="46505.82"/>
-    <n v="151143.91499999998"/>
-    <n v="21702.716"/>
-    <n v="40305.044000000002"/>
-    <n v="62007.76"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060020500"/>
-    <s v="Training"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.65"/>
-    <n v="0.35"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.15"/>
-    <n v="0.12"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061090000"/>
-    <s v="Packing"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.03"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061140200"/>
-    <s v="Legal Fees"/>
-    <s v="Other"/>
-    <s v="Constant"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.08"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061140400"/>
-    <s v="Consulting Fees"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="28"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="6150"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.08"/>
-    <m/>
-    <x v="27"/>
-    <n v="369"/>
-    <n v="0"/>
-    <n v="492"/>
-    <n v="0"/>
-    <n v="492"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061140500"/>
-    <s v="Microsoft &amp; SAP Fees"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061160100"/>
-    <s v="Advertising"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061160200"/>
-    <s v="Sales Offers"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.08"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061160300"/>
-    <s v="Visibility"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061160500"/>
-    <s v="Listing Fees"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061160700"/>
-    <s v="Scientific Support"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.15"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061161018"/>
-    <s v="SFDA Registration Fe"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061169900"/>
-    <s v="Other Marketing Exp."/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061169901"/>
-    <s v="Pharma Branding"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061169903"/>
-    <s v="Digital Marketing"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061169907"/>
-    <s v="Corporate Marketing"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.5"/>
-    <n v="0.5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061169908"/>
-    <s v="Exhibition / Event A"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061169912"/>
-    <s v="Vendor Sponsored Cam"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061180000"/>
-    <s v="Exhibitions Expenses"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="29"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="40200"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <m/>
-    <x v="28"/>
-    <n v="2412"/>
-    <n v="0"/>
-    <n v="6030"/>
-    <n v="0"/>
-    <n v="6030"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061210000"/>
-    <s v="Training Expenses"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061220000"/>
-    <s v="Conference &amp; Meeting"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061230100"/>
-    <s v="News Papers"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061230200"/>
-    <s v="Bids,Tenders Booklet"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061250000"/>
-    <s v="Charity"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.08"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061260000"/>
-    <s v="Penalty"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="30"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="2673.6000000000004"/>
-    <n v="668.40000000000009"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.05"/>
-    <n v="0.1"/>
-    <x v="29"/>
-    <n v="200.51999999999998"/>
-    <n v="0"/>
-    <n v="133.68000000000004"/>
-    <n v="66.840000000000018"/>
-    <n v="200.52000000000004"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061270000"/>
-    <s v="Bad &amp; Doubtful Debts"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061290000"/>
-    <s v="Material Damage Exp."/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Others under Assets Depreciation"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061990000"/>
-    <s v="Miscellaneous"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.02"/>
-    <n v="0.1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0070010400"/>
-    <s v="TRF Commission"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="31"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="9238.81"/>
-    <n v="3959.49"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.01"/>
-    <n v="0.01"/>
-    <x v="30"/>
-    <n v="791.89799999999991"/>
-    <n v="0"/>
-    <n v="92.388099999999994"/>
-    <n v="39.594899999999996"/>
-    <n v="131.983"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0070010701"/>
-    <s v="Interest on Lease Liability-Manual"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="32"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="228961.53699999998"/>
-    <n v="98126.372999999992"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.01"/>
-    <n v="0.01"/>
-    <x v="31"/>
-    <n v="19625.274599999997"/>
-    <n v="0"/>
-    <n v="2289.61537"/>
-    <n v="981.2637299999999"/>
-    <n v="3270.8791000000001"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0070010700"/>
-    <s v="Interest on Lease La"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Other"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.01"/>
-    <n v="0.01"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010300"/>
-    <s v="GOSI"/>
-    <s v="GOSI"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="33"/>
-    <n v="0.2"/>
-    <n v="0.8"/>
-    <n v="230902.33799999999"/>
-    <n v="923609.35199999996"/>
-    <x v="0"/>
-    <x v="10"/>
-    <n v="0.04"/>
-    <n v="0.08"/>
-    <x v="32"/>
-    <n v="69270.701399999991"/>
-    <n v="230902.33799999999"/>
-    <n v="9236.0935200000004"/>
-    <n v="73888.748160000003"/>
-    <n v="83124.841679999998"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060011000"/>
-    <s v="Airfare Tickets"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="34"/>
-    <n v="0.4"/>
-    <n v="0.6"/>
-    <n v="168752.54"/>
-    <n v="253128.80999999997"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0.08"/>
-    <n v="0.06"/>
-    <x v="33"/>
-    <n v="25312.880999999998"/>
-    <n v="50625.761999999995"/>
-    <n v="13500.203200000002"/>
-    <n v="15187.728599999997"/>
-    <n v="28687.931799999998"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060011300"/>
-    <s v="End of Service Award"/>
-    <s v="Other"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="35"/>
-    <n v="0.1"/>
-    <n v="0.6"/>
-    <n v="21282.2"/>
-    <n v="127693.2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="0.12"/>
-    <x v="34"/>
-    <n v="12769.32"/>
-    <n v="38307.96"/>
-    <n v="1489.7540000000001"/>
-    <n v="15323.183999999999"/>
-    <n v="16812.937999999998"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060020300"/>
-    <s v="Recruitment Expense"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.5"/>
-    <n v="0.5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.06"/>
-    <n v="0.12"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060020600"/>
-    <s v="Medical Inspections-"/>
-    <s v="Other"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.45"/>
-    <n v="0.55000000000000004"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.08"/>
-    <n v="0.12"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010200"/>
-    <s v="Overtime"/>
-    <s v="Overtime"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="36"/>
-    <n v="0.6"/>
-    <n v="0.4"/>
-    <n v="557254.19999999995"/>
-    <n v="371502.80000000005"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="0.12"/>
-    <n v="0.08"/>
-    <x v="35"/>
-    <n v="55725.42"/>
-    <n v="55725.420000000006"/>
-    <n v="66870.503999999986"/>
-    <n v="29720.224000000006"/>
-    <n v="96590.727999999988"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061120200"/>
-    <s v="Vehicles Fuel"/>
-    <s v="Petrol"/>
-    <s v="Constant"/>
-    <s v="Petrol"/>
-    <s v="Fuel"/>
-    <s v="OpEx"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="5560548.5700000003"/>
-    <x v="0"/>
-    <x v="11"/>
-    <m/>
-    <n v="0.3"/>
-    <x v="36"/>
-    <n v="333632.9142"/>
-    <n v="778476.79980000015"/>
-    <n v="0"/>
-    <n v="1668164.571"/>
-    <n v="1668164.571"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061170000"/>
-    <s v="Physical Inventory"/>
-    <s v="Phys. Inventory Expenses"/>
-    <s v="Constant"/>
-    <s v="Physical Inventory Expenses"/>
-    <s v="Others under Assets Depreciation"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.05"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061010000"/>
-    <s v="Rent"/>
-    <s v="Rental Cost"/>
-    <s v="Constant"/>
-    <s v="Rental Cost"/>
-    <s v="WH Rent"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="0.01"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061240000"/>
-    <s v="Safety"/>
-    <s v="Safety"/>
-    <s v="Constant"/>
-    <s v="Safety"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061080000"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Variable"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061080001"/>
-    <s v="Pharmacies operation"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Variable"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061080002"/>
-    <s v="Warehouses operation"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Variable"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.18"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061080003"/>
-    <s v="Offices operational"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Variable"/>
-    <s v="Stationery&amp;Printing"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061190000"/>
-    <s v="Subscription"/>
-    <s v="Subscription"/>
-    <s v="Constant"/>
-    <s v="Subscription"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061060000"/>
-    <s v="Telephone &amp; Postage"/>
-    <s v="Telephone &amp; Postage"/>
-    <s v="Variable"/>
-    <s v="Telephone &amp; Postage"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="38"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="290358.03200000001"/>
-    <n v="72589.508000000002"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.1"/>
-    <n v="0.18"/>
-    <x v="37"/>
-    <n v="21776.852399999996"/>
-    <n v="0"/>
-    <n v="29035.803200000002"/>
-    <n v="13066.111440000001"/>
-    <n v="42101.914640000003"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061030200"/>
-    <s v="Transportation"/>
-    <s v="Transportation"/>
-    <s v="Variable"/>
-    <s v="Flight &amp; Hotels Expenses"/>
-    <s v="Utilities, Consumables, Maintenance, …"/>
-    <s v="OpEx"/>
-    <x v="39"/>
-    <n v="0.7"/>
-    <n v="0.3"/>
-    <n v="11118.862999999999"/>
-    <n v="4765.2269999999999"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.03"/>
-    <n v="0.25"/>
-    <x v="38"/>
-    <n v="953.04539999999997"/>
-    <n v="0"/>
-    <n v="333.56588999999997"/>
-    <n v="1191.30675"/>
-    <n v="1524.87264"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010600"/>
-    <s v="Transportation Allow"/>
-    <s v="Transportation Allow"/>
-    <s v="Variable"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="40"/>
-    <n v="0.3"/>
-    <n v="0.7"/>
-    <n v="214182.753"/>
-    <n v="499759.75699999998"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="0.04"/>
-    <n v="0.08"/>
-    <x v="39"/>
-    <n v="42836.550600000002"/>
-    <n v="74963.96355"/>
-    <n v="8567.3101200000001"/>
-    <n v="39980.780559999999"/>
-    <n v="48548.090680000001"/>
-  </r>
-  <r>
-    <s v="Employees Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0060010400"/>
-    <s v="Vacation Allowance"/>
-    <s v="Vacation Allowance"/>
-    <s v="Constant"/>
-    <s v="Labor Salary"/>
-    <s v="Labor Salary"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.3"/>
-    <n v="0.7"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.1"/>
-    <n v="0.12"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069010100"/>
-    <s v="Dep.- Motor Vehicles"/>
-    <s v="Vehicle Depreciation"/>
-    <s v="Constant"/>
-    <s v="Vehicle Depreciation"/>
-    <s v="Fleet CapEx (Fleet Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="5"/>
-    <x v="12"/>
-    <m/>
-    <n v="0.28000000000000003"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0061200000"/>
-    <s v="Car Rental Expenses"/>
-    <s v="Vehicle Depreciation"/>
-    <s v="Variable"/>
-    <s v="Vehicle Rent"/>
-    <s v="Vehicle Rent"/>
-    <s v="OpEx"/>
-    <x v="41"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1988066.11"/>
-    <x v="2"/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1988066.11"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069010700"/>
-    <s v="Dep-Building"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="Building Depr."/>
-    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="0.95"/>
-    <n v="0.05"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.16"/>
-    <n v="0.22"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069010900"/>
-    <s v="Dep-Automated Logist"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="Building Depr."/>
-    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="7"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069019910"/>
-    <s v="Depreciation of RTU"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="WH Rent"/>
-    <s v="WH Rent"/>
-    <s v="OpEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="0.01"/>
-    <m/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069019911"/>
-    <s v="Depreciation of RTU-Manual"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="WH Rent"/>
-    <s v="WH Rent"/>
-    <s v="OpEx"/>
-    <x v="42"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="2021995.818"/>
-    <n v="224666.20200000002"/>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="5.9456000000000002E-2"/>
-    <m/>
-    <x v="40"/>
-    <n v="112333.10100000001"/>
-    <n v="0"/>
-    <n v="120219.783355008"/>
-    <n v="0"/>
-    <n v="120219.783355008"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069010300"/>
-    <s v="Dep-Furniture&amp;Fixtur"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="Equipments &amp; Furniture Depr."/>
-    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.09"/>
-    <n v="0.1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069019900"/>
-    <s v="Dep-Law Value Assets"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="Equipments &amp; Furniture Depr."/>
-    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="0.95"/>
-    <n v="0.05"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.15"/>
-    <n v="0.25"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069010500"/>
-    <s v="Dp-Lease Improvement"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="Lease Improvement Depr."/>
-    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="0.9"/>
-    <n v="0.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.05"/>
-    <n v="0.1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069010200"/>
-    <s v="Dep-Office Equipment"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="Office Equipments Depr."/>
-    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="0.8"/>
-    <n v="0.2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.09"/>
-    <n v="0.1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="General Expenses"/>
-    <n v="2025"/>
-    <s v="q2"/>
-    <m/>
-    <s v="0069010400"/>
-    <s v="Dp-Tool&amp;AirCondition"/>
-    <s v="WHs Depreciation"/>
-    <s v="Constant"/>
-    <s v="Tool &amp; Air-condition Depr."/>
-    <s v="WH CapEx (Building, MHEs, Tools Depreciation)"/>
-    <s v="CapEx"/>
-    <x v="2"/>
-    <n v="0.95"/>
-    <n v="0.05"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.16"/>
-    <n v="0.22"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="41"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A6002B7-30BA-C64F-875D-E11A382BCD3B}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B86" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="44">
-        <item x="5"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="30"/>
-        <item x="28"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="4"/>
-        <item x="39"/>
-        <item x="9"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="23"/>
-        <item x="29"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="35"/>
-        <item x="25"/>
-        <item x="17"/>
-        <item x="32"/>
-        <item x="38"/>
-        <item x="34"/>
-        <item x="16"/>
-        <item x="40"/>
-        <item x="27"/>
-        <item x="36"/>
-        <item x="24"/>
-        <item x="33"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="41"/>
-        <item x="3"/>
-        <item x="42"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="37"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="6"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="44">
-        <item x="2"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="27"/>
-        <item x="4"/>
-        <item x="30"/>
-        <item x="38"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="22"/>
-        <item x="28"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="34"/>
-        <item x="16"/>
-        <item x="24"/>
-        <item x="37"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="26"/>
-        <item x="39"/>
-        <item x="23"/>
-        <item x="35"/>
-        <item x="32"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="25"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="40"/>
-        <item x="12"/>
-        <item x="36"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="16"/>
-    <field x="17"/>
-    <field x="20"/>
-  </rowFields>
-  <rowItems count="83">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="41"/>
-    </i>
-    <i r="2">
-      <x v="42"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Dist. COST VALUE " fld="21" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7661,691 +3012,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA6D9CE-4FA6-EA4A-B002-9EAD01494DD0}">
-  <dimension ref="A3:B86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="58">
-        <v>1</v>
-      </c>
-      <c r="B5" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
-        <v>0</v>
-      </c>
-      <c r="B6" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="59">
-        <v>0</v>
-      </c>
-      <c r="B8" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="B9" s="56">
-        <v>61048.095199999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="58">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B10" s="56">
-        <v>61048.095199999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="59">
-        <v>4120017.0721970266</v>
-      </c>
-      <c r="B11" s="56">
-        <v>61048.095199999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="B12" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="59">
-        <v>0</v>
-      </c>
-      <c r="B14" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B15" s="56">
-        <v>54171.608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="B16" s="56">
-        <v>54171.608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
-        <v>1835767.4519039998</v>
-      </c>
-      <c r="B17" s="56">
-        <v>54171.608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="B18" s="56">
-        <v>113060.57150000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="56">
-        <v>113060.57150000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="59">
-        <v>0</v>
-      </c>
-      <c r="B20" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="59">
-        <v>11144.84806</v>
-      </c>
-      <c r="B21" s="56">
-        <v>727.47050000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="59">
-        <v>2014109.1356449919</v>
-      </c>
-      <c r="B22" s="56">
-        <v>112333.10100000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>5.5E-2</v>
-      </c>
-      <c r="B23" s="56">
-        <v>162762.44545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="58">
-        <v>0.1105</v>
-      </c>
-      <c r="B24" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="59">
-        <v>0</v>
-      </c>
-      <c r="B25" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="58">
-        <v>0.3</v>
-      </c>
-      <c r="B26" s="56">
-        <v>77313.582500000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="59">
-        <v>951659.9155</v>
-      </c>
-      <c r="B27" s="56">
-        <v>77313.582500000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="56">
-        <v>85448.862949999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="59">
-        <v>1263089.5559700001</v>
-      </c>
-      <c r="B29" s="56">
-        <v>85448.862949999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="B30" s="56">
-        <v>1769700.2862</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="58">
-        <v>0</v>
-      </c>
-      <c r="B31" s="56">
-        <v>29486.5206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="59">
-        <v>0</v>
-      </c>
-      <c r="B32" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="59">
-        <v>368581.50750000001</v>
-      </c>
-      <c r="B33" s="56">
-        <v>29486.5206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="B34" s="56">
-        <v>108657.9558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="59">
-        <v>1340114.7881999998</v>
-      </c>
-      <c r="B35" s="56">
-        <v>108657.9558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="58">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B36" s="56">
-        <v>333632.9142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="59">
-        <v>2780274.2850000001</v>
-      </c>
-      <c r="B37" s="56">
-        <v>333632.9142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="58">
-        <v>0.15</v>
-      </c>
-      <c r="B38" s="56">
-        <v>301370.18940000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="59">
-        <v>547593.90517000004</v>
-      </c>
-      <c r="B39" s="56">
-        <v>42836.550600000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="59">
-        <v>720715.43200000003</v>
-      </c>
-      <c r="B40" s="56">
-        <v>55725.42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="59">
-        <v>2545919.1733360002</v>
-      </c>
-      <c r="B41" s="56">
-        <v>202808.2188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="B42" s="56">
-        <v>43005.901799999992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="59">
-        <v>0</v>
-      </c>
-      <c r="B43" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="59">
-        <v>188725.5552</v>
-      </c>
-      <c r="B44" s="56">
-        <v>17693.020799999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="59">
-        <v>317254.77519999997</v>
-      </c>
-      <c r="B45" s="56">
-        <v>25312.880999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="58">
-        <v>0.25</v>
-      </c>
-      <c r="B46" s="56">
-        <v>69270.701399999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="59">
-        <v>771213.80891999998</v>
-      </c>
-      <c r="B47" s="56">
-        <v>69270.701399999991</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="58">
-        <v>0.3</v>
-      </c>
-      <c r="B48" s="56">
-        <v>567615.07499999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="59">
-        <v>0</v>
-      </c>
-      <c r="B49" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="59">
-        <v>144931.78200000001</v>
-      </c>
-      <c r="B50" s="56">
-        <v>12769.32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="59">
-        <v>515439.505</v>
-      </c>
-      <c r="B51" s="56">
-        <v>46505.82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="59">
-        <v>5041037.6887500007</v>
-      </c>
-      <c r="B52" s="56">
-        <v>508339.935</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="58">
-        <v>0.35</v>
-      </c>
-      <c r="B53" s="56">
-        <v>150357.2928</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="59">
-        <v>1628870.6719999998</v>
-      </c>
-      <c r="B54" s="56">
-        <v>150357.2928</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="58">
-        <v>0.4</v>
-      </c>
-      <c r="B55" s="56">
-        <v>390.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="59">
-        <v>5005.7700000000004</v>
-      </c>
-      <c r="B56" s="56">
-        <v>390.06</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B57" s="56">
-        <v>165913.6752</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="59">
-        <v>0</v>
-      </c>
-      <c r="B58" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="59">
-        <v>390</v>
-      </c>
-      <c r="B59" s="56">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="59">
-        <v>2418</v>
-      </c>
-      <c r="B60" s="56">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="59">
-        <v>2940.96</v>
-      </c>
-      <c r="B61" s="56">
-        <v>200.51999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="59">
-        <v>5289</v>
-      </c>
-      <c r="B62" s="56">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="59">
-        <v>12274.419</v>
-      </c>
-      <c r="B63" s="56">
-        <v>791.89799999999991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="59">
-        <v>13406.17196</v>
-      </c>
-      <c r="B64" s="56">
-        <v>953.04539999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="59">
-        <v>17323.944</v>
-      </c>
-      <c r="B65" s="56">
-        <v>1231.56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="59">
-        <v>22089.599999999999</v>
-      </c>
-      <c r="B66" s="56">
-        <v>1699.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="59">
-        <v>24129.300000000003</v>
-      </c>
-      <c r="B67" s="56">
-        <v>1856.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="59">
-        <v>26208</v>
-      </c>
-      <c r="B68" s="56">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="59">
-        <v>31758</v>
-      </c>
-      <c r="B69" s="56">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="59">
-        <v>39539.754200000003</v>
-      </c>
-      <c r="B70" s="56">
-        <v>2810.8830000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="59">
-        <v>95652.703999999998</v>
-      </c>
-      <c r="B71" s="56">
-        <v>7320.36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="59">
-        <v>118981.91010000001</v>
-      </c>
-      <c r="B72" s="56">
-        <v>8979.7667999999994</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="59">
-        <v>122545.77719999998</v>
-      </c>
-      <c r="B73" s="56">
-        <v>8753.2697999999982</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="59">
-        <v>141675.40912</v>
-      </c>
-      <c r="B74" s="56">
-        <v>10842.505799999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="59">
-        <v>200621.44975</v>
-      </c>
-      <c r="B75" s="56">
-        <v>15295.154999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="59">
-        <v>299068.77295999997</v>
-      </c>
-      <c r="B76" s="56">
-        <v>21776.852399999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="59">
-        <v>304191.75630000001</v>
-      </c>
-      <c r="B77" s="56">
-        <v>19625.274599999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="59">
-        <v>713006.65072000003</v>
-      </c>
-      <c r="B78" s="56">
-        <v>58764.284399999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="B79" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B80" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="59">
-        <v>0</v>
-      </c>
-      <c r="B81" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B82" s="56"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B83" s="56"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="59">
-        <v>37999289.706412025</v>
-      </c>
-      <c r="B84" s="56"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="B85" s="56"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B86" s="56">
-        <v>2160743.0063499999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C848AD37-E748-434C-8006-059E7251C6A6}">
   <sheetPr>
     <tabColor rgb="FF40ED33"/>
@@ -8353,11 +3019,11 @@
   <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="L61" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14925,7 +9591,7 @@
         <v>2025</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="7" t="s">
@@ -15009,7 +9675,7 @@
         <v>2025</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="7" t="s">
@@ -15091,7 +9757,7 @@
         <v>2025</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="7" t="s">
@@ -15173,7 +9839,7 @@
         <v>2025</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="7" t="s">
@@ -15255,7 +9921,7 @@
         <v>2025</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="7" t="s">
@@ -15339,7 +10005,7 @@
         <v>2025</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="47" t="s">
@@ -15423,7 +10089,7 @@
         <v>2025</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="7" t="s">
@@ -15505,7 +10171,7 @@
         <v>2025</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="7" t="s">
@@ -15591,7 +10257,7 @@
         <v>2025</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="7" t="s">
@@ -15677,7 +10343,7 @@
         <v>2025</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="7" t="s">
@@ -15763,7 +10429,7 @@
         <v>2025</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="7" t="s">
@@ -15847,7 +10513,7 @@
         <v>2025</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="7" t="s">
@@ -15931,7 +10597,7 @@
         <v>2025</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="7" t="s">
@@ -16017,7 +10683,7 @@
         <v>2025</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="21" t="s">
@@ -16101,7 +10767,7 @@
         <v>2025</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="7" t="s">
@@ -16181,7 +10847,7 @@
         <v>2025</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="7" t="s">
@@ -16261,7 +10927,7 @@
         <v>2025</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="7" t="s">
@@ -16343,7 +11009,7 @@
         <v>2025</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="7" t="s">
@@ -16425,7 +11091,7 @@
         <v>2025</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="21" t="s">
@@ -16507,7 +11173,7 @@
         <v>2025</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="21" t="s">
@@ -16589,7 +11255,7 @@
         <v>2025</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="21" t="s">
@@ -16671,7 +11337,7 @@
         <v>2025</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="7" t="s">
@@ -16753,7 +11419,7 @@
         <v>2025</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="7" t="s">
@@ -16837,7 +11503,7 @@
         <v>2025</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="7" t="s">
@@ -16921,7 +11587,7 @@
         <v>2025</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="7" t="s">
@@ -17007,7 +11673,7 @@
         <v>2025</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="7" t="s">
@@ -17091,7 +11757,7 @@
         <v>2025</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="7" t="s">
@@ -17173,7 +11839,7 @@
         <v>2025</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="7" t="s">
@@ -17255,7 +11921,7 @@
         <v>2025</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="7" t="s">
@@ -17337,7 +12003,7 @@
         <v>2025</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="7" t="s">
@@ -17415,7 +12081,7 @@
         <v>2025</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="7" t="s">
@@ -17495,7 +12161,7 @@
         <v>2025</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="47" t="s">
@@ -17577,7 +12243,7 @@
         <v>2025</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="7" t="s">
@@ -17659,7 +12325,7 @@
         <v>2025</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="7" t="s">
@@ -17741,7 +12407,7 @@
         <v>2025</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="7" t="s">
@@ -17823,7 +12489,7 @@
         <v>2025</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="7" t="s">
@@ -17905,7 +12571,7 @@
         <v>2025</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="7" t="s">
@@ -18077,6 +12743,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3bb9dc88-f2da-4766-8908-3ca1e2958d73" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9343916472E5745B9D479015FB9E85A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7bdc0cd2b3a9af24a0562f3d3990c1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3bb9dc88-f2da-4766-8908-3ca1e2958d73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89129e226d424210633e0aa63ac2fd92" ns3:_="">
     <xsd:import namespace="3bb9dc88-f2da-4766-8908-3ca1e2958d73"/>
@@ -18282,24 +12965,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0263AF5-3235-4A9E-A81A-1A30FD513646}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3bb9dc88-f2da-4766-8908-3ca1e2958d73" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4B4EE4-57DD-4509-98F8-31AD878EA5A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3bb9dc88-f2da-4766-8908-3ca1e2958d73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C27C152-53A3-4D0A-9358-C65218B74B3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18315,28 +13005,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0263AF5-3235-4A9E-A81A-1A30FD513646}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4B4EE4-57DD-4509-98F8-31AD878EA5A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3bb9dc88-f2da-4766-8908-3ca1e2958d73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haithamdata/Downloads/Mail Downloads/cost_dashboard_vis3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A9710-8DDB-0341-BCA4-4E76151E71D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545439BD-D0BB-B84D-908F-9C41C4756936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="19860" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="160" yWindow="660" windowWidth="38080" windowHeight="23840" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2-25 TCO " sheetId="4" r:id="rId1"/>
@@ -3062,7 +3062,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3155,12 +3155,6 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4443,11 +4437,11 @@
   <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Q137" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="C117" sqref="C117:C230"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12581,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="7">
-        <f t="shared" ref="Y98:Y161" si="30">T98*P98</f>
+        <f t="shared" ref="Y98:Y116" si="30">T98*P98</f>
         <v>0</v>
       </c>
       <c r="Z98" s="26">
@@ -14129,23 +14123,23 @@
         <v>0.22</v>
       </c>
       <c r="U117" s="7">
-        <f>L117-(V117+W117+X117+Y117)</f>
+        <f t="shared" ref="U117:U148" si="32">L117-(V117+W117+X117+Y117)</f>
         <v>3359614.6745700003</v>
       </c>
       <c r="V117" s="7">
-        <f>Q117*L117</f>
+        <f t="shared" ref="V117:V153" si="33">Q117*L117</f>
         <v>259429.7046</v>
       </c>
       <c r="W117" s="7">
-        <f>R117*P117</f>
+        <f t="shared" ref="W117:W148" si="34">R117*P117</f>
         <v>0</v>
       </c>
       <c r="X117" s="17">
-        <f>S117*O117</f>
+        <f t="shared" ref="X117:X153" si="35">S117*O117</f>
         <v>657221.91832000006</v>
       </c>
       <c r="Y117" s="7">
-        <f>T117*P117</f>
+        <f t="shared" ref="Y117:Y153" si="36">T117*P117</f>
         <v>47562.112509999999</v>
       </c>
       <c r="Z117" s="15">
@@ -14209,23 +14203,23 @@
       <c r="S118" s="11"/>
       <c r="T118" s="11"/>
       <c r="U118" s="7">
-        <f>L118-(V118+W118+X118+Y118)</f>
+        <f t="shared" si="32"/>
         <v>611619.46019999997</v>
       </c>
       <c r="V118" s="7">
-        <f>Q118*L118</f>
+        <f t="shared" si="33"/>
         <v>12482.0298</v>
       </c>
       <c r="W118" s="7">
-        <f>R118*P118</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X118" s="7">
-        <f>S118*O118</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y118" s="7">
-        <f>T118*P118</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z118" s="15">
@@ -14291,23 +14285,23 @@
       </c>
       <c r="T119" s="11"/>
       <c r="U119" s="7">
-        <f>L119-(V119+W119+X119+Y119)</f>
+        <f t="shared" si="32"/>
         <v>2119348.3453100002</v>
       </c>
       <c r="V119" s="7">
-        <f>Q119*L119</f>
+        <f t="shared" si="33"/>
         <v>112611.49550000002</v>
       </c>
       <c r="W119" s="7">
-        <f>R119*P119</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X119" s="17">
-        <f>S119*O119</f>
+        <f t="shared" si="35"/>
         <v>20270.069190000002</v>
       </c>
       <c r="Y119" s="7">
-        <f>T119*P119</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z119" s="15">
@@ -14369,23 +14363,23 @@
       <c r="S120" s="11"/>
       <c r="T120" s="11"/>
       <c r="U120" s="7">
-        <f>L120-(V120+W120+X120+Y120)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V120" s="7">
-        <f>Q120*L120</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W120" s="7">
-        <f>R120*P120</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X120" s="7">
-        <f>S120*O120</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y120" s="7">
-        <f>T120*P120</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z120" s="15">
@@ -14453,23 +14447,23 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="U121" s="7">
-        <f>L121-(V121+W121+X121+Y121)</f>
+        <f t="shared" si="32"/>
         <v>930141.98269500001</v>
       </c>
       <c r="V121" s="7">
-        <f>Q121*L121</f>
+        <f t="shared" si="33"/>
         <v>92259.349050000004</v>
       </c>
       <c r="W121" s="7">
-        <f>R121*P121</f>
+        <f t="shared" si="34"/>
         <v>185357.419455</v>
       </c>
       <c r="X121" s="7">
-        <f>S121*O121</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y121" s="7">
-        <f>T121*P121</f>
+        <f t="shared" si="36"/>
         <v>469683.95880000002</v>
       </c>
       <c r="Z121" s="15">
@@ -14535,23 +14529,23 @@
       <c r="S122" s="11"/>
       <c r="T122" s="11"/>
       <c r="U122" s="7">
-        <f>L122-(V122+W122+X122+Y122)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V122" s="7">
-        <f>Q122*L122</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W122" s="7">
-        <f>R122*P122</f>
+        <f t="shared" si="34"/>
         <v>1000816.33</v>
       </c>
       <c r="X122" s="7">
-        <f>S122*O122</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y122" s="7">
-        <f>T122*P122</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z122" s="15">
@@ -14619,23 +14613,23 @@
         <v>0.22</v>
       </c>
       <c r="U123" s="7">
-        <f>L123-(V123+W123+X123+Y123)</f>
+        <f t="shared" si="32"/>
         <v>544370.6002799999</v>
       </c>
       <c r="V123" s="7">
-        <f>Q123*L123</f>
+        <f t="shared" si="33"/>
         <v>35533.328999999998</v>
       </c>
       <c r="W123" s="7">
-        <f>R123*P123</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X123" s="17">
-        <f>S123*O123</f>
+        <f t="shared" si="35"/>
         <v>115127.98596000001</v>
       </c>
       <c r="Y123" s="7">
-        <f>T123*P123</f>
+        <f t="shared" si="36"/>
         <v>15634.66476</v>
       </c>
       <c r="Z123" s="15">
@@ -14699,23 +14693,23 @@
       </c>
       <c r="T124" s="11"/>
       <c r="U124" s="7">
-        <f>L124-(V124+W124+X124+Y124)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V124" s="7">
-        <f>Q124*L124</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W124" s="7">
-        <f>R124*P124</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X124" s="7">
-        <f>S124*O124</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y124" s="7">
-        <f>T124*P124</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z124" s="15">
@@ -14781,23 +14775,23 @@
         <v>0.25</v>
       </c>
       <c r="U125" s="7">
-        <f>L125-(V125+W125+X125+Y125)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V125" s="7">
-        <f>Q125*L125</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W125" s="7">
-        <f>R125*P125</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X125" s="7">
-        <f>S125*O125</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y125" s="7">
-        <f>T125*P125</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z125" s="15">
@@ -14865,23 +14859,23 @@
         <v>0.18</v>
       </c>
       <c r="U126" s="7">
-        <f>L126-(V126+W126+X126+Y126)</f>
+        <f t="shared" si="32"/>
         <v>99794.442720000006</v>
       </c>
       <c r="V126" s="7">
-        <f>Q126*L126</f>
+        <f t="shared" si="33"/>
         <v>7637.3297999999995</v>
       </c>
       <c r="W126" s="7">
-        <f>R126*P126</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X126" s="7">
-        <f>S126*O126</f>
+        <f t="shared" si="35"/>
         <v>15274.659600000001</v>
       </c>
       <c r="Y126" s="7">
-        <f>T126*P126</f>
+        <f t="shared" si="36"/>
         <v>4582.3978800000004</v>
       </c>
       <c r="Z126" s="26">
@@ -14947,23 +14941,23 @@
         <v>0.25</v>
       </c>
       <c r="U127" s="7">
-        <f>L127-(V127+W127+X127+Y127)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V127" s="7">
-        <f>Q127*L127</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W127" s="7">
-        <f>R127*P127</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X127" s="7">
-        <f>S127*O127</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y127" s="7">
-        <f>T127*P127</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z127" s="26">
@@ -15031,23 +15025,23 @@
         <v>0.1</v>
       </c>
       <c r="U128" s="7">
-        <f>L128-(V128+W128+X128+Y128)</f>
+        <f t="shared" si="32"/>
         <v>73994.869200000001</v>
       </c>
       <c r="V128" s="7">
-        <f>Q128*L128</f>
+        <f t="shared" si="33"/>
         <v>5285.3478000000005</v>
       </c>
       <c r="W128" s="7">
-        <f>R128*P128</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X128" s="7">
-        <f>S128*O128</f>
+        <f t="shared" si="35"/>
         <v>7928.0217000000011</v>
       </c>
       <c r="Y128" s="7">
-        <f>T128*P128</f>
+        <f t="shared" si="36"/>
         <v>880.89130000000011</v>
       </c>
       <c r="Z128" s="26">
@@ -15113,23 +15107,23 @@
         <v>0.25</v>
       </c>
       <c r="U129" s="7">
-        <f>L129-(V129+W129+X129+Y129)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V129" s="7">
-        <f>Q129*L129</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W129" s="7">
-        <f>R129*P129</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X129" s="7">
-        <f>S129*O129</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y129" s="7">
-        <f>T129*P129</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z129" s="26">
@@ -15197,23 +15191,23 @@
         <v>0.18</v>
       </c>
       <c r="U130" s="7">
-        <f>L130-(V130+W130+X130+Y130)</f>
+        <f t="shared" si="32"/>
         <v>1434750.9856799999</v>
       </c>
       <c r="V130" s="7">
-        <f>Q130*L130</f>
+        <f t="shared" si="33"/>
         <v>97061.874800000005</v>
       </c>
       <c r="W130" s="7">
-        <f>R130*P130</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X130" s="7">
-        <f>S130*O130</f>
+        <f t="shared" si="35"/>
         <v>169417.09056000001</v>
       </c>
       <c r="Y130" s="7">
-        <f>T130*P130</f>
+        <f t="shared" si="36"/>
         <v>63531.408960000008</v>
       </c>
       <c r="Z130" s="15">
@@ -15279,23 +15273,23 @@
         <v>0.25</v>
       </c>
       <c r="U131" s="7">
-        <f>L131-(V131+W131+X131+Y131)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V131" s="7">
-        <f>Q131*L131</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W131" s="7">
-        <f>R131*P131</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X131" s="7">
-        <f>S131*O131</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y131" s="7">
-        <f>T131*P131</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z131" s="26">
@@ -15361,23 +15355,23 @@
         <v>0.25</v>
       </c>
       <c r="U132" s="7">
-        <f>L132-(V132+W132+X132+Y132)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V132" s="7">
-        <f>Q132*L132</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W132" s="7">
-        <f>R132*P132</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X132" s="7">
-        <f>S132*O132</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y132" s="7">
-        <f>T132*P132</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z132" s="26">
@@ -15445,23 +15439,23 @@
         <v>0.25</v>
       </c>
       <c r="U133" s="7">
-        <f>L133-(V133+W133+X133+Y133)</f>
+        <f t="shared" si="32"/>
         <v>67408.2</v>
       </c>
       <c r="V133" s="7">
-        <f>Q133*L133</f>
+        <f t="shared" si="33"/>
         <v>4993.2</v>
       </c>
       <c r="W133" s="7">
-        <f>R133*P133</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X133" s="7">
-        <f>S133*O133</f>
+        <f t="shared" si="35"/>
         <v>6657.6</v>
       </c>
       <c r="Y133" s="7">
-        <f>T133*P133</f>
+        <f t="shared" si="36"/>
         <v>4161</v>
       </c>
       <c r="Z133" s="26">
@@ -15529,23 +15523,23 @@
         <v>0.1</v>
       </c>
       <c r="U134" s="7">
-        <f>L134-(V134+W134+X134+Y134)</f>
+        <f t="shared" si="32"/>
         <v>763283.15162999998</v>
       </c>
       <c r="V134" s="7">
-        <f>Q134*L134</f>
+        <f t="shared" si="33"/>
         <v>53942.272199999999</v>
       </c>
       <c r="W134" s="7">
-        <f>R134*P134</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X134" s="7">
-        <f>S134*O134</f>
+        <f t="shared" si="35"/>
         <v>72822.067469999995</v>
       </c>
       <c r="Y134" s="7">
-        <f>T134*P134</f>
+        <f t="shared" si="36"/>
         <v>8990.3787000000011</v>
       </c>
       <c r="Z134" s="15">
@@ -15613,23 +15607,23 @@
         <v>0.25</v>
       </c>
       <c r="U135" s="7">
-        <f>L135-(V135+W135+X135+Y135)</f>
+        <f t="shared" si="32"/>
         <v>6008.3585999999996</v>
       </c>
       <c r="V135" s="7">
-        <f>Q135*L135</f>
+        <f t="shared" si="33"/>
         <v>459.23759999999999</v>
       </c>
       <c r="W135" s="7">
-        <f>R135*P135</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X135" s="7">
-        <f>S135*O135</f>
+        <f t="shared" si="35"/>
         <v>1090.6893</v>
       </c>
       <c r="Y135" s="7">
-        <f>T135*P135</f>
+        <f t="shared" si="36"/>
         <v>95.674500000000009</v>
       </c>
       <c r="Z135" s="15">
@@ -15697,23 +15691,23 @@
         <v>0.25</v>
       </c>
       <c r="U136" s="7">
-        <f>L136-(V136+W136+X136+Y136)</f>
+        <f t="shared" si="32"/>
         <v>41648.868000000002</v>
       </c>
       <c r="V136" s="7">
-        <f>Q136*L136</f>
+        <f t="shared" si="33"/>
         <v>2960.8199999999997</v>
       </c>
       <c r="W136" s="7">
-        <f>R136*P136</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X136" s="7">
-        <f>S136*O136</f>
+        <f t="shared" si="35"/>
         <v>1036.2869999999998</v>
       </c>
       <c r="Y136" s="7">
-        <f>T136*P136</f>
+        <f t="shared" si="36"/>
         <v>3701.0249999999996</v>
       </c>
       <c r="Z136" s="15">
@@ -15781,23 +15775,23 @@
         <v>0.25</v>
       </c>
       <c r="U137" s="7">
-        <f>L137-(V137+W137+X137+Y137)</f>
+        <f t="shared" si="32"/>
         <v>59325.443639999998</v>
       </c>
       <c r="V137" s="7">
-        <f>Q137*L137</f>
+        <f t="shared" si="33"/>
         <v>4217.4485999999997</v>
       </c>
       <c r="W137" s="7">
-        <f>R137*P137</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X137" s="7">
-        <f>S137*O137</f>
+        <f t="shared" si="35"/>
         <v>1476.1070099999997</v>
       </c>
       <c r="Y137" s="7">
-        <f>T137*P137</f>
+        <f t="shared" si="36"/>
         <v>5271.8107499999996</v>
       </c>
       <c r="Z137" s="15">
@@ -15865,23 +15859,23 @@
         <v>0.25</v>
       </c>
       <c r="U138" s="7">
-        <f>L138-(V138+W138+X138+Y138)</f>
+        <f t="shared" si="32"/>
         <v>24209.253799999999</v>
       </c>
       <c r="V138" s="7">
-        <f>Q138*L138</f>
+        <f t="shared" si="33"/>
         <v>1721.037</v>
       </c>
       <c r="W138" s="7">
-        <f>R138*P138</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X138" s="7">
-        <f>S138*O138</f>
+        <f t="shared" si="35"/>
         <v>602.36294999999996</v>
       </c>
       <c r="Y138" s="7">
-        <f>T138*P138</f>
+        <f t="shared" si="36"/>
         <v>2151.2962499999999</v>
       </c>
       <c r="Z138" s="15">
@@ -15949,23 +15943,23 @@
         <v>0.25</v>
       </c>
       <c r="U139" s="7">
-        <f>L139-(V139+W139+X139+Y139)</f>
+        <f t="shared" si="32"/>
         <v>397.5</v>
       </c>
       <c r="V139" s="7">
-        <f>Q139*L139</f>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="W139" s="7">
-        <f>R139*P139</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X139" s="7">
-        <f>S139*O139</f>
+        <f t="shared" si="35"/>
         <v>35</v>
       </c>
       <c r="Y139" s="7">
-        <f>T139*P139</f>
+        <f t="shared" si="36"/>
         <v>37.5</v>
       </c>
       <c r="Z139" s="15">
@@ -16033,23 +16027,23 @@
         <v>0.25</v>
       </c>
       <c r="U140" s="7">
-        <f>L140-(V140+W140+X140+Y140)</f>
+        <f t="shared" si="32"/>
         <v>536.625</v>
       </c>
       <c r="V140" s="7">
-        <f>Q140*L140</f>
+        <f t="shared" si="33"/>
         <v>40.5</v>
       </c>
       <c r="W140" s="7">
-        <f>R140*P140</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X140" s="7">
-        <f>S140*O140</f>
+        <f t="shared" si="35"/>
         <v>47.25</v>
       </c>
       <c r="Y140" s="7">
-        <f>T140*P140</f>
+        <f t="shared" si="36"/>
         <v>50.625</v>
       </c>
       <c r="Z140" s="15">
@@ -16115,23 +16109,23 @@
         <v>0.25</v>
       </c>
       <c r="U141" s="7">
-        <f>L141-(V141+W141+X141+Y141)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V141" s="7">
-        <f>Q141*L141</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W141" s="7">
-        <f>R141*P141</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X141" s="7">
-        <f>S141*O141</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y141" s="7">
-        <f>T141*P141</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z141" s="15">
@@ -16199,23 +16193,23 @@
         <v>0.25</v>
       </c>
       <c r="U142" s="7">
-        <f>L142-(V142+W142+X142+Y142)</f>
+        <f t="shared" si="32"/>
         <v>59924.715000000004</v>
       </c>
       <c r="V142" s="7">
-        <f>Q142*L142</f>
+        <f t="shared" si="33"/>
         <v>4522.62</v>
       </c>
       <c r="W142" s="7">
-        <f>R142*P142</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X142" s="7">
-        <f>S142*O142</f>
+        <f t="shared" si="35"/>
         <v>5276.3899999999994</v>
       </c>
       <c r="Y142" s="7">
-        <f>T142*P142</f>
+        <f t="shared" si="36"/>
         <v>5653.2749999999996</v>
       </c>
       <c r="Z142" s="15">
@@ -16283,23 +16277,23 @@
         <v>0.18</v>
       </c>
       <c r="U143" s="7">
-        <f>L143-(V143+W143+X143+Y143)</f>
+        <f t="shared" si="32"/>
         <v>541139.65360000008</v>
       </c>
       <c r="V143" s="7">
-        <f>Q143*L143</f>
+        <f t="shared" si="33"/>
         <v>41413.749000000003</v>
       </c>
       <c r="W143" s="7">
-        <f>R143*P143</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X143" s="17">
-        <f>S143*O143</f>
+        <f t="shared" si="35"/>
         <v>82827.498000000007</v>
       </c>
       <c r="Y143" s="7">
-        <f>T143*P143</f>
+        <f t="shared" si="36"/>
         <v>24848.249400000001</v>
       </c>
       <c r="Z143" s="15">
@@ -16367,23 +16361,23 @@
         <v>0.19</v>
       </c>
       <c r="U144" s="7">
-        <f>L144-(V144+W144+X144+Y144)</f>
+        <f t="shared" si="32"/>
         <v>364531.38749999995</v>
       </c>
       <c r="V144" s="7">
-        <f>Q144*L144</f>
+        <f t="shared" si="33"/>
         <v>29162.510999999999</v>
       </c>
       <c r="W144" s="7">
-        <f>R144*P144</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X144" s="7">
-        <f>S144*O144</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y144" s="7">
-        <f>T144*P144</f>
+        <f t="shared" si="36"/>
         <v>92347.951499999996</v>
       </c>
       <c r="Z144" s="15">
@@ -16453,23 +16447,23 @@
         <v>0.15</v>
       </c>
       <c r="U145" s="7">
-        <f>L145-(V145+W145+X145+Y145)</f>
+        <f t="shared" si="32"/>
         <v>6110125.7910350002</v>
       </c>
       <c r="V145" s="7">
-        <f>Q145*L145</f>
+        <f t="shared" si="33"/>
         <v>461431.77779999998</v>
       </c>
       <c r="W145" s="7">
-        <f>R145*P145</f>
+        <f t="shared" si="34"/>
         <v>99976.885190000001</v>
       </c>
       <c r="X145" s="7">
-        <f>S145*O145</f>
+        <f t="shared" si="35"/>
         <v>269168.53704999998</v>
       </c>
       <c r="Y145" s="7">
-        <f>T145*P145</f>
+        <f t="shared" si="36"/>
         <v>749826.63892499998</v>
       </c>
       <c r="Z145" s="15">
@@ -16539,23 +16533,23 @@
         <v>0.06</v>
       </c>
       <c r="U146" s="7">
-        <f>L146-(V146+W146+X146+Y146)</f>
+        <f t="shared" si="32"/>
         <v>4156083.6570750005</v>
       </c>
       <c r="V146" s="7">
-        <f>Q146*L146</f>
+        <f t="shared" si="33"/>
         <v>44809.527300000009</v>
       </c>
       <c r="W146" s="17">
-        <f>R146*P146</f>
+        <f t="shared" si="34"/>
         <v>11202.381825000002</v>
       </c>
       <c r="X146" s="7">
-        <f>S146*O146</f>
+        <f t="shared" si="35"/>
         <v>201642.87285000001</v>
       </c>
       <c r="Y146" s="7">
-        <f>T146*P146</f>
+        <f t="shared" si="36"/>
         <v>67214.29095000001</v>
       </c>
       <c r="Z146" s="15">
@@ -16625,23 +16619,23 @@
         <v>0.08</v>
       </c>
       <c r="U147" s="7">
-        <f>L147-(V147+W147+X147+Y147)</f>
+        <f t="shared" si="32"/>
         <v>2203449.4167299997</v>
       </c>
       <c r="V147" s="7">
-        <f>Q147*L147</f>
+        <f t="shared" si="33"/>
         <v>62840.78875</v>
       </c>
       <c r="W147" s="7">
-        <f>R147*P147</f>
+        <f t="shared" si="34"/>
         <v>49267.178379999998</v>
       </c>
       <c r="X147" s="7">
-        <f>S147*O147</f>
+        <f t="shared" si="35"/>
         <v>1005.4526199999999</v>
       </c>
       <c r="Y147" s="7">
-        <f>T147*P147</f>
+        <f t="shared" si="36"/>
         <v>197068.71351999999</v>
       </c>
       <c r="Z147" s="15">
@@ -16711,23 +16705,23 @@
         <v>0.08</v>
       </c>
       <c r="U148" s="7">
-        <f>L148-(V148+W148+X148+Y148)</f>
+        <f t="shared" si="32"/>
         <v>1535090.375</v>
       </c>
       <c r="V148" s="7">
-        <f>Q148*L148</f>
+        <f t="shared" si="33"/>
         <v>99917.125</v>
       </c>
       <c r="W148" s="7">
-        <f>R148*P148</f>
+        <f t="shared" si="34"/>
         <v>19983.425000000003</v>
       </c>
       <c r="X148" s="7">
-        <f>S148*O148</f>
+        <f t="shared" si="35"/>
         <v>81750.375</v>
       </c>
       <c r="Y148" s="7">
-        <f>T148*P148</f>
+        <f t="shared" si="36"/>
         <v>79933.700000000012</v>
       </c>
       <c r="Z148" s="15">
@@ -16797,23 +16791,23 @@
         <v>0.08</v>
       </c>
       <c r="U149" s="7">
-        <f>L149-(V149+W149+X149+Y149)</f>
+        <f t="shared" ref="U149:U180" si="37">L149-(V149+W149+X149+Y149)</f>
         <v>2503274.5237500002</v>
       </c>
       <c r="V149" s="7">
-        <f>Q149*L149</f>
+        <f t="shared" si="33"/>
         <v>176597.85</v>
       </c>
       <c r="W149" s="7">
-        <f>R149*P149</f>
+        <f t="shared" ref="W149:W180" si="38">R149*P149</f>
         <v>38262.8675</v>
       </c>
       <c r="X149" s="7">
-        <f>S149*O149</f>
+        <f t="shared" si="35"/>
         <v>72110.788749999992</v>
       </c>
       <c r="Y149" s="7">
-        <f>T149*P149</f>
+        <f t="shared" si="36"/>
         <v>153051.47</v>
       </c>
       <c r="Z149" s="15">
@@ -16883,23 +16877,23 @@
         <v>0.08</v>
       </c>
       <c r="U150" s="7">
-        <f>L150-(V150+W150+X150+Y150)</f>
+        <f t="shared" si="37"/>
         <v>1736086.624416</v>
       </c>
       <c r="V150" s="7">
-        <f>Q150*L150</f>
+        <f t="shared" si="33"/>
         <v>122604.98759999999</v>
       </c>
       <c r="W150" s="7">
-        <f>R150*P150</f>
+        <f t="shared" si="38"/>
         <v>21251.531183999999</v>
       </c>
       <c r="X150" s="7">
-        <f>S150*O150</f>
+        <f t="shared" si="35"/>
         <v>78467.192064000003</v>
       </c>
       <c r="Y150" s="7">
-        <f>T150*P150</f>
+        <f t="shared" si="36"/>
         <v>85006.124735999998</v>
       </c>
       <c r="Z150" s="15">
@@ -16967,23 +16961,23 @@
         <v>0.08</v>
       </c>
       <c r="U151" s="7">
-        <f>L151-(V151+W151+X151+Y151)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V151" s="7">
-        <f>Q151*L151</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W151" s="7">
-        <f>R151*P151</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X151" s="7">
-        <f>S151*O151</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y151" s="7">
-        <f>T151*P151</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z151" s="15">
@@ -17053,23 +17047,23 @@
         <v>0.12</v>
       </c>
       <c r="U152" s="7">
-        <f>L152-(V152+W152+X152+Y152)</f>
+        <f t="shared" si="37"/>
         <v>6232.2</v>
       </c>
       <c r="V152" s="7">
-        <f>Q152*L152</f>
+        <f t="shared" si="33"/>
         <v>423</v>
       </c>
       <c r="W152" s="7">
-        <f>R152*P152</f>
+        <f t="shared" si="38"/>
         <v>42.300000000000011</v>
       </c>
       <c r="X152" s="7">
-        <f>S152*O152</f>
+        <f t="shared" si="35"/>
         <v>98.7</v>
       </c>
       <c r="Y152" s="7">
-        <f>T152*P152</f>
+        <f t="shared" si="36"/>
         <v>253.80000000000004</v>
       </c>
       <c r="Z152" s="15">
@@ -17139,23 +17133,23 @@
         <v>0.08</v>
       </c>
       <c r="U153" s="7">
-        <f>L153-(V153+W153+X153+Y153)</f>
+        <f t="shared" si="37"/>
         <v>662652.44495999999</v>
       </c>
       <c r="V153" s="7">
-        <f>Q153*L153</f>
+        <f t="shared" si="33"/>
         <v>46885.786200000002</v>
       </c>
       <c r="W153" s="7">
-        <f>R153*P153</f>
+        <f t="shared" si="38"/>
         <v>9377.1572400000005</v>
       </c>
       <c r="X153" s="7">
-        <f>S153*O153</f>
+        <f t="shared" si="35"/>
         <v>25005.752639999999</v>
       </c>
       <c r="Y153" s="7">
-        <f>T153*P153</f>
+        <f t="shared" si="36"/>
         <v>37508.628960000002</v>
       </c>
       <c r="Z153" s="15">
@@ -17221,16 +17215,16 @@
       </c>
       <c r="T154" s="50"/>
       <c r="U154" s="59">
-        <f>L154-(V154+W154+X154+Y154)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V154" s="59"/>
       <c r="W154" s="59">
-        <f>R154*P154</f>
+        <f t="shared" si="38"/>
         <v>3300000</v>
       </c>
       <c r="X154" s="7">
-        <f>S154*O154</f>
+        <f t="shared" ref="X154:X185" si="39">S154*O154</f>
         <v>0</v>
       </c>
       <c r="Y154" s="59"/>
@@ -17299,23 +17293,23 @@
         <v>0.12</v>
       </c>
       <c r="U155" s="7">
-        <f>L155-(V155+W155+X155+Y155)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V155" s="7">
-        <f>Q155*L155</f>
+        <f t="shared" ref="V155:V186" si="40">Q155*L155</f>
         <v>0</v>
       </c>
       <c r="W155" s="7">
-        <f>R155*P155</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X155" s="7">
-        <f>S155*O155</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y155" s="7">
-        <f>T155*P155</f>
+        <f t="shared" ref="Y155:Y186" si="41">T155*P155</f>
         <v>0</v>
       </c>
       <c r="Z155" s="15">
@@ -17385,23 +17379,23 @@
         <v>0.08</v>
       </c>
       <c r="U156" s="7">
-        <f>L156-(V156+W156+X156+Y156)</f>
+        <f t="shared" si="37"/>
         <v>1415960.1713399999</v>
       </c>
       <c r="V156" s="7">
-        <f>Q156*L156</f>
+        <f t="shared" si="40"/>
         <v>99018.193799999994</v>
       </c>
       <c r="W156" s="7">
-        <f>R156*P156</f>
+        <f t="shared" si="38"/>
         <v>23104.245220000001</v>
       </c>
       <c r="X156" s="7">
-        <f>S156*O156</f>
+        <f t="shared" si="39"/>
         <v>19803.638759999998</v>
       </c>
       <c r="Y156" s="7">
-        <f>T156*P156</f>
+        <f t="shared" si="41"/>
         <v>92416.980880000003</v>
       </c>
       <c r="Z156" s="15">
@@ -17471,23 +17465,23 @@
         <v>0.06</v>
       </c>
       <c r="U157" s="7">
-        <f>L157-(V157+W157+X157+Y157)</f>
+        <f t="shared" si="37"/>
         <v>370923.29759999999</v>
       </c>
       <c r="V157" s="7">
-        <f>Q157*L157</f>
+        <f t="shared" si="40"/>
         <v>25878.369599999998</v>
       </c>
       <c r="W157" s="7">
-        <f>R157*P157</f>
+        <f t="shared" si="38"/>
         <v>4313.0616</v>
       </c>
       <c r="X157" s="7">
-        <f>S157*O157</f>
+        <f t="shared" si="39"/>
         <v>17252.2464</v>
       </c>
       <c r="Y157" s="7">
-        <f>T157*P157</f>
+        <f t="shared" si="41"/>
         <v>12939.184799999999</v>
       </c>
       <c r="Z157" s="15">
@@ -17557,23 +17551,23 @@
         <v>0.12</v>
       </c>
       <c r="U158" s="7">
-        <f>L158-(V158+W158+X158+Y158)</f>
+        <f t="shared" si="37"/>
         <v>600345.39471999998</v>
       </c>
       <c r="V158" s="7">
-        <f>Q158*L158</f>
+        <f t="shared" si="40"/>
         <v>43320.1728</v>
       </c>
       <c r="W158" s="7">
-        <f>R158*P158</f>
+        <f t="shared" si="38"/>
         <v>7942.031680000001</v>
       </c>
       <c r="X158" s="7">
-        <f>S158*O158</f>
+        <f t="shared" si="39"/>
         <v>22743.090720000004</v>
       </c>
       <c r="Y158" s="7">
-        <f>T158*P158</f>
+        <f t="shared" si="41"/>
         <v>47652.19008</v>
       </c>
       <c r="Z158" s="15">
@@ -17643,23 +17637,23 @@
         <v>0.12</v>
       </c>
       <c r="U159" s="7">
-        <f>L159-(V159+W159+X159+Y159)</f>
+        <f t="shared" si="37"/>
         <v>12675</v>
       </c>
       <c r="V159" s="7">
-        <f>Q159*L159</f>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="W159" s="7">
-        <f>R159*P159</f>
+        <f t="shared" si="38"/>
         <v>75</v>
       </c>
       <c r="X159" s="7">
-        <f>S159*O159</f>
+        <f t="shared" si="39"/>
         <v>450</v>
       </c>
       <c r="Y159" s="7">
-        <f>T159*P159</f>
+        <f t="shared" si="41"/>
         <v>900</v>
       </c>
       <c r="Z159" s="15">
@@ -17727,23 +17721,23 @@
         <v>0.12</v>
       </c>
       <c r="U160" s="7">
-        <f>L160-(V160+W160+X160+Y160)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V160" s="7">
-        <f>Q160*L160</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W160" s="7">
-        <f>R160*P160</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X160" s="7">
-        <f>S160*O160</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y160" s="7">
-        <f>T160*P160</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z160" s="15">
@@ -17813,23 +17807,23 @@
         <v>0.08</v>
       </c>
       <c r="U161" s="7">
-        <f>L161-(V161+W161+X161+Y161)</f>
+        <f t="shared" si="37"/>
         <v>532757.679</v>
       </c>
       <c r="V161" s="7">
-        <f>Q161*L161</f>
+        <f t="shared" si="40"/>
         <v>38559.06</v>
       </c>
       <c r="W161" s="17">
-        <f>R161*P161</f>
+        <f t="shared" si="38"/>
         <v>1927.9530000000002</v>
       </c>
       <c r="X161" s="7">
-        <f>S161*O161</f>
+        <f t="shared" si="39"/>
         <v>53982.683999999994</v>
       </c>
       <c r="Y161" s="7">
-        <f>T161*P161</f>
+        <f t="shared" si="41"/>
         <v>15423.624000000002</v>
       </c>
       <c r="Z161" s="15">
@@ -17879,11 +17873,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="O162" s="7">
-        <f t="shared" ref="O162:O225" si="32">M162*L162</f>
+        <f t="shared" ref="O162:O225" si="42">M162*L162</f>
         <v>290664.42749999993</v>
       </c>
       <c r="P162" s="7">
-        <f t="shared" ref="P162:P225" si="33">N162*L162</f>
+        <f t="shared" ref="P162:P225" si="43">N162*L162</f>
         <v>355256.52250000002</v>
       </c>
       <c r="Q162" s="11">
@@ -17899,27 +17893,27 @@
         <v>0.08</v>
       </c>
       <c r="U162" s="7">
-        <f>L162-(V162+W162+X162+Y162)</f>
+        <f t="shared" si="37"/>
         <v>560013.46364999993</v>
       </c>
       <c r="V162" s="7">
-        <f>Q162*L162</f>
+        <f t="shared" si="40"/>
         <v>38755.256999999998</v>
       </c>
       <c r="W162" s="7">
-        <f>R162*P162</f>
+        <f t="shared" si="38"/>
         <v>7105.1304500000006</v>
       </c>
       <c r="X162" s="7">
-        <f>S162*O162</f>
+        <f t="shared" si="39"/>
         <v>11626.577099999997</v>
       </c>
       <c r="Y162" s="7">
-        <f>T162*P162</f>
+        <f t="shared" si="41"/>
         <v>28420.521800000002</v>
       </c>
       <c r="Z162" s="15">
-        <f t="shared" ref="Z162:Z225" si="34">X162+Y162</f>
+        <f t="shared" ref="Z162:Z225" si="44">X162+Y162</f>
         <v>40047.098899999997</v>
       </c>
     </row>
@@ -17963,11 +17957,11 @@
         <v>0.65</v>
       </c>
       <c r="O163" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P163" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q163" s="11">
@@ -17983,27 +17977,27 @@
         <v>0.12</v>
       </c>
       <c r="U163" s="7">
-        <f>L163-(V163+W163+X163+Y163)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V163" s="7">
-        <f>Q163*L163</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W163" s="7">
-        <f>R163*P163</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X163" s="7">
-        <f>S163*O163</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y163" s="7">
-        <f>T163*P163</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z163" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -18049,11 +18043,11 @@
         <v>0.1</v>
       </c>
       <c r="O164" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>96106.607999999993</v>
       </c>
       <c r="P164" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>10678.512000000001</v>
       </c>
       <c r="Q164" s="11">
@@ -18067,27 +18061,27 @@
         <v>0.1</v>
       </c>
       <c r="U164" s="7">
-        <f>L164-(V164+W164+X164+Y164)</f>
+        <f t="shared" si="37"/>
         <v>94504.831200000001</v>
       </c>
       <c r="V164" s="7">
-        <f>Q164*L164</f>
+        <f t="shared" si="40"/>
         <v>6407.1071999999995</v>
       </c>
       <c r="W164" s="7">
-        <f>R164*P164</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X164" s="7">
-        <f>S164*O164</f>
+        <f t="shared" si="39"/>
         <v>4805.3303999999998</v>
       </c>
       <c r="Y164" s="7">
-        <f>T164*P164</f>
+        <f t="shared" si="41"/>
         <v>1067.8512000000001</v>
       </c>
       <c r="Z164" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>5873.1815999999999</v>
       </c>
     </row>
@@ -18133,11 +18127,11 @@
         <v>1</v>
       </c>
       <c r="O165" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P165" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>67748.75</v>
       </c>
       <c r="Q165" s="18">
@@ -18151,27 +18145,27 @@
         <v>0.25</v>
       </c>
       <c r="U165" s="7">
-        <f>L165-(V165+W165+X165+Y165)</f>
+        <f t="shared" si="37"/>
         <v>46746.637499999997</v>
       </c>
       <c r="V165" s="7">
-        <f>Q165*L165</f>
+        <f t="shared" si="40"/>
         <v>4064.9249999999997</v>
       </c>
       <c r="W165" s="7">
-        <f>R165*P165</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X165" s="7">
-        <f>S165*O165</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y165" s="7">
-        <f>T165*P165</f>
+        <f t="shared" si="41"/>
         <v>16937.1875</v>
       </c>
       <c r="Z165" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>16937.1875</v>
       </c>
     </row>
@@ -18215,11 +18209,11 @@
         <v>0.1</v>
       </c>
       <c r="O166" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P166" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q166" s="11">
@@ -18233,27 +18227,27 @@
         <v>0.25</v>
       </c>
       <c r="U166" s="7">
-        <f>L166-(V166+W166+X166+Y166)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V166" s="7">
-        <f>Q166*L166</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W166" s="7">
-        <f>R166*P166</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X166" s="7">
-        <f>S166*O166</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y166" s="7">
-        <f>T166*P166</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z166" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -18297,11 +18291,11 @@
         <v>0.1</v>
       </c>
       <c r="O167" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P167" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q167" s="11">
@@ -18315,27 +18309,27 @@
         <v>0.25</v>
       </c>
       <c r="U167" s="7">
-        <f>L167-(V167+W167+X167+Y167)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V167" s="7">
-        <f>Q167*L167</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W167" s="7">
-        <f>R167*P167</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X167" s="7">
-        <f>S167*O167</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y167" s="7">
-        <f>T167*P167</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z167" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -18379,11 +18373,11 @@
         <v>0.1</v>
       </c>
       <c r="O168" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P168" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q168" s="11">
@@ -18397,27 +18391,27 @@
         <v>0.25</v>
       </c>
       <c r="U168" s="7">
-        <f>L168-(V168+W168+X168+Y168)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V168" s="7">
-        <f>Q168*L168</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W168" s="7">
-        <f>R168*P168</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X168" s="7">
-        <f>S168*O168</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y168" s="7">
-        <f>T168*P168</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z168" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -18461,11 +18455,11 @@
         <v>0.1</v>
       </c>
       <c r="O169" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P169" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q169" s="11">
@@ -18479,27 +18473,27 @@
         <v>0.25</v>
       </c>
       <c r="U169" s="7">
-        <f>L169-(V169+W169+X169+Y169)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V169" s="7">
-        <f>Q169*L169</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W169" s="7">
-        <f>R169*P169</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X169" s="7">
-        <f>S169*O169</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y169" s="7">
-        <f>T169*P169</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z169" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -18545,11 +18539,11 @@
         <v>0.1</v>
       </c>
       <c r="O170" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>16650</v>
       </c>
       <c r="P170" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1850</v>
       </c>
       <c r="Q170" s="11">
@@ -18563,27 +18557,27 @@
         <v>0.25</v>
       </c>
       <c r="U170" s="7">
-        <f>L170-(V170+W170+X170+Y170)</f>
+        <f t="shared" si="37"/>
         <v>14430</v>
       </c>
       <c r="V170" s="7">
-        <f>Q170*L170</f>
+        <f t="shared" si="40"/>
         <v>1110</v>
       </c>
       <c r="W170" s="7">
-        <f>R170*P170</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X170" s="7">
-        <f>S170*O170</f>
+        <f t="shared" si="39"/>
         <v>2497.5</v>
       </c>
       <c r="Y170" s="7">
-        <f>T170*P170</f>
+        <f t="shared" si="41"/>
         <v>462.5</v>
       </c>
       <c r="Z170" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>2960</v>
       </c>
     </row>
@@ -18627,11 +18621,11 @@
         <v>0.1</v>
       </c>
       <c r="O171" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P171" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q171" s="11">
@@ -18645,27 +18639,27 @@
         <v>0.25</v>
       </c>
       <c r="U171" s="7">
-        <f>L171-(V171+W171+X171+Y171)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V171" s="7">
-        <f>Q171*L171</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W171" s="7">
-        <f>R171*P171</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X171" s="7">
-        <f>S171*O171</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y171" s="7">
-        <f>T171*P171</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z171" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -18709,11 +18703,11 @@
         <v>0.1</v>
       </c>
       <c r="O172" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P172" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q172" s="11">
@@ -18727,27 +18721,27 @@
         <v>0.25</v>
       </c>
       <c r="U172" s="7">
-        <f>L172-(V172+W172+X172+Y172)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V172" s="7">
-        <f>Q172*L172</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W172" s="7">
-        <f>R172*P172</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X172" s="7">
-        <f>S172*O172</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y172" s="7">
-        <f>T172*P172</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z172" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -18793,11 +18787,11 @@
         <v>0.1</v>
       </c>
       <c r="O173" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>10234.800000000001</v>
       </c>
       <c r="P173" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1137.2</v>
       </c>
       <c r="Q173" s="11">
@@ -18811,27 +18805,27 @@
         <v>0.25</v>
       </c>
       <c r="U173" s="7">
-        <f>L173-(V173+W173+X173+Y173)</f>
+        <f t="shared" si="37"/>
         <v>8870.16</v>
       </c>
       <c r="V173" s="7">
-        <f>Q173*L173</f>
+        <f t="shared" si="40"/>
         <v>682.31999999999994</v>
       </c>
       <c r="W173" s="7">
-        <f>R173*P173</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X173" s="7">
-        <f>S173*O173</f>
+        <f t="shared" si="39"/>
         <v>1535.22</v>
       </c>
       <c r="Y173" s="7">
-        <f>T173*P173</f>
+        <f t="shared" si="41"/>
         <v>284.3</v>
       </c>
       <c r="Z173" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1819.52</v>
       </c>
     </row>
@@ -18877,11 +18871,11 @@
         <v>0.1</v>
       </c>
       <c r="O174" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>36809.1</v>
       </c>
       <c r="P174" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>4089.9</v>
       </c>
       <c r="Q174" s="11">
@@ -18895,27 +18889,27 @@
         <v>0.25</v>
       </c>
       <c r="U174" s="7">
-        <f>L174-(V174+W174+X174+Y174)</f>
+        <f t="shared" si="37"/>
         <v>31901.22</v>
       </c>
       <c r="V174" s="7">
-        <f>Q174*L174</f>
+        <f t="shared" si="40"/>
         <v>2453.94</v>
       </c>
       <c r="W174" s="7">
-        <f>R174*P174</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X174" s="7">
-        <f>S174*O174</f>
+        <f t="shared" si="39"/>
         <v>5521.3649999999998</v>
       </c>
       <c r="Y174" s="7">
-        <f>T174*P174</f>
+        <f t="shared" si="41"/>
         <v>1022.475</v>
       </c>
       <c r="Z174" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>6543.84</v>
       </c>
     </row>
@@ -18959,11 +18953,11 @@
         <v>0.1</v>
       </c>
       <c r="O175" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P175" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q175" s="11">
@@ -18977,27 +18971,27 @@
         <v>0.25</v>
       </c>
       <c r="U175" s="7">
-        <f>L175-(V175+W175+X175+Y175)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V175" s="7">
-        <f>Q175*L175</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W175" s="7">
-        <f>R175*P175</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X175" s="7">
-        <f>S175*O175</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y175" s="7">
-        <f>T175*P175</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z175" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19041,11 +19035,11 @@
         <v>0.1</v>
       </c>
       <c r="O176" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P176" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q176" s="11">
@@ -19059,27 +19053,27 @@
         <v>0.25</v>
       </c>
       <c r="U176" s="7">
-        <f>L176-(V176+W176+X176+Y176)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V176" s="7">
-        <f>Q176*L176</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W176" s="7">
-        <f>R176*P176</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X176" s="7">
-        <f>S176*O176</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y176" s="7">
-        <f>T176*P176</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z176" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19125,11 +19119,11 @@
         <v>0.1</v>
       </c>
       <c r="O177" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>19035</v>
       </c>
       <c r="P177" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>2115</v>
       </c>
       <c r="Q177" s="11">
@@ -19143,27 +19137,27 @@
         <v>0.25</v>
       </c>
       <c r="U177" s="7">
-        <f>L177-(V177+W177+X177+Y177)</f>
+        <f t="shared" si="37"/>
         <v>16497</v>
       </c>
       <c r="V177" s="7">
-        <f>Q177*L177</f>
+        <f t="shared" si="40"/>
         <v>1269</v>
       </c>
       <c r="W177" s="7">
-        <f>R177*P177</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X177" s="7">
-        <f>S177*O177</f>
+        <f t="shared" si="39"/>
         <v>2855.25</v>
       </c>
       <c r="Y177" s="7">
-        <f>T177*P177</f>
+        <f t="shared" si="41"/>
         <v>528.75</v>
       </c>
       <c r="Z177" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>3384</v>
       </c>
     </row>
@@ -19209,11 +19203,11 @@
         <v>0.1</v>
       </c>
       <c r="O178" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>451553.83199999999</v>
       </c>
       <c r="P178" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>50172.648000000001</v>
       </c>
       <c r="Q178" s="11">
@@ -19227,27 +19221,27 @@
         <v>0.23</v>
       </c>
       <c r="U178" s="7">
-        <f>L178-(V178+W178+X178+Y178)</f>
+        <f t="shared" si="37"/>
         <v>365256.87743999995</v>
       </c>
       <c r="V178" s="7">
-        <f>Q178*L178</f>
+        <f t="shared" si="40"/>
         <v>30103.588799999998</v>
       </c>
       <c r="W178" s="7">
-        <f>R178*P178</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X178" s="17">
-        <f>S178*O178</f>
+        <f t="shared" si="39"/>
         <v>94826.30472</v>
       </c>
       <c r="Y178" s="7">
-        <f>T178*P178</f>
+        <f t="shared" si="41"/>
         <v>11539.709040000002</v>
       </c>
       <c r="Z178" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>106366.01376</v>
       </c>
     </row>
@@ -19291,11 +19285,11 @@
         <v>0.1</v>
       </c>
       <c r="O179" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P179" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q179" s="11">
@@ -19309,27 +19303,27 @@
         <v>0.25</v>
       </c>
       <c r="U179" s="7">
-        <f>L179-(V179+W179+X179+Y179)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V179" s="7">
-        <f>Q179*L179</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W179" s="7">
-        <f>R179*P179</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X179" s="7">
-        <f>S179*O179</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y179" s="7">
-        <f>T179*P179</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z179" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19375,11 +19369,11 @@
         <v>0.1</v>
       </c>
       <c r="O180" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>209006.685</v>
       </c>
       <c r="P180" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>23222.965</v>
       </c>
       <c r="Q180" s="11">
@@ -19393,27 +19387,27 @@
         <v>0.18</v>
       </c>
       <c r="U180" s="7">
-        <f>L180-(V180+W180+X180+Y180)</f>
+        <f t="shared" si="37"/>
         <v>182764.73454999999</v>
       </c>
       <c r="V180" s="7">
-        <f>Q180*L180</f>
+        <f t="shared" si="40"/>
         <v>13933.778999999999</v>
       </c>
       <c r="W180" s="7">
-        <f>R180*P180</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X180" s="17">
-        <f>S180*O180</f>
+        <f t="shared" si="39"/>
         <v>31351.00275</v>
       </c>
       <c r="Y180" s="7">
-        <f>T180*P180</f>
+        <f t="shared" si="41"/>
         <v>4180.1337000000003</v>
       </c>
       <c r="Z180" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>35531.136449999998</v>
       </c>
     </row>
@@ -19459,11 +19453,11 @@
         <v>0.1</v>
       </c>
       <c r="O181" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>3906</v>
       </c>
       <c r="P181" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>434</v>
       </c>
       <c r="Q181" s="11">
@@ -19477,27 +19471,27 @@
         <v>0.25</v>
       </c>
       <c r="U181" s="7">
-        <f>L181-(V181+W181+X181+Y181)</f>
+        <f t="shared" ref="U181:U212" si="45">L181-(V181+W181+X181+Y181)</f>
         <v>3385.2</v>
       </c>
       <c r="V181" s="7">
-        <f>Q181*L181</f>
+        <f t="shared" si="40"/>
         <v>260.39999999999998</v>
       </c>
       <c r="W181" s="7">
-        <f>R181*P181</f>
+        <f t="shared" ref="W181:W212" si="46">R181*P181</f>
         <v>0</v>
       </c>
       <c r="X181" s="7">
-        <f>S181*O181</f>
+        <f t="shared" si="39"/>
         <v>585.9</v>
       </c>
       <c r="Y181" s="7">
-        <f>T181*P181</f>
+        <f t="shared" si="41"/>
         <v>108.5</v>
       </c>
       <c r="Z181" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>694.4</v>
       </c>
     </row>
@@ -19541,11 +19535,11 @@
         <v>0.1</v>
       </c>
       <c r="O182" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P182" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q182" s="11">
@@ -19559,27 +19553,27 @@
         <v>0.25</v>
       </c>
       <c r="U182" s="7">
-        <f>L182-(V182+W182+X182+Y182)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V182" s="7">
-        <f>Q182*L182</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W182" s="7">
-        <f>R182*P182</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X182" s="7">
-        <f>S182*O182</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y182" s="7">
-        <f>T182*P182</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z182" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19625,11 +19619,11 @@
         <v>1</v>
       </c>
       <c r="O183" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P183" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>1503081.81</v>
       </c>
       <c r="Q183" s="18">
@@ -19643,27 +19637,27 @@
         <v>0.18</v>
       </c>
       <c r="U183" s="7">
-        <f>L183-(V183+W183+X183+Y183)</f>
+        <f t="shared" si="45"/>
         <v>1112280.5394000001</v>
       </c>
       <c r="V183" s="7">
-        <f>Q183*L183</f>
+        <f t="shared" si="40"/>
         <v>90184.908599999995</v>
       </c>
       <c r="W183" s="28">
-        <f>R183*P183</f>
+        <f t="shared" si="46"/>
         <v>30061.636200000001</v>
       </c>
       <c r="X183" s="7">
-        <f>S183*O183</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y183" s="7">
-        <f>T183*P183</f>
+        <f t="shared" si="41"/>
         <v>270554.72580000001</v>
       </c>
       <c r="Z183" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>270554.72580000001</v>
       </c>
     </row>
@@ -19709,11 +19703,11 @@
         <v>0.2</v>
       </c>
       <c r="O184" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>243813.41600000003</v>
       </c>
       <c r="P184" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>60953.354000000007</v>
       </c>
       <c r="Q184" s="11">
@@ -19727,27 +19721,27 @@
         <v>0.1</v>
       </c>
       <c r="U184" s="7">
-        <f>L184-(V184+W184+X184+Y184)</f>
+        <f t="shared" si="45"/>
         <v>258442.22096000001</v>
       </c>
       <c r="V184" s="7">
-        <f>Q184*L184</f>
+        <f t="shared" si="40"/>
         <v>18286.0062</v>
       </c>
       <c r="W184" s="7">
-        <f>R184*P184</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X184" s="7">
-        <f>S184*O184</f>
+        <f t="shared" si="39"/>
         <v>21943.207440000002</v>
       </c>
       <c r="Y184" s="7">
-        <f>T184*P184</f>
+        <f t="shared" si="41"/>
         <v>6095.3354000000008</v>
       </c>
       <c r="Z184" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>28038.542840000002</v>
       </c>
     </row>
@@ -19791,11 +19785,11 @@
         <v>0</v>
       </c>
       <c r="O185" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P185" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q185" s="11">
@@ -19807,27 +19801,27 @@
       </c>
       <c r="T185" s="11"/>
       <c r="U185" s="7">
-        <f>L185-(V185+W185+X185+Y185)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V185" s="7">
-        <f>Q185*L185</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W185" s="7">
-        <f>R185*P185</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X185" s="7">
-        <f>S185*O185</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y185" s="7">
-        <f>T185*P185</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z185" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19871,11 +19865,11 @@
         <v>0.2</v>
       </c>
       <c r="O186" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P186" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q186" s="11">
@@ -19891,27 +19885,27 @@
         <v>0.6</v>
       </c>
       <c r="U186" s="7">
-        <f>L186-(V186+W186+X186+Y186)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V186" s="7">
-        <f>Q186*L186</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W186" s="7">
-        <f>R186*P186</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X186" s="7">
-        <f>S186*O186</f>
+        <f t="shared" ref="X186:X217" si="47">S186*O186</f>
         <v>0</v>
       </c>
       <c r="Y186" s="7">
-        <f>T186*P186</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z186" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19957,11 +19951,11 @@
         <v>0.5</v>
       </c>
       <c r="O187" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>212621.89</v>
       </c>
       <c r="P187" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>212621.89</v>
       </c>
       <c r="Q187" s="11">
@@ -19977,27 +19971,27 @@
         <v>0.4</v>
       </c>
       <c r="U187" s="7">
-        <f>L187-(V187+W187+X187+Y187)</f>
+        <f t="shared" si="45"/>
         <v>250893.83020000003</v>
       </c>
       <c r="V187" s="7">
-        <f>Q187*L187</f>
+        <f t="shared" ref="V187:V218" si="48">Q187*L187</f>
         <v>25514.626800000002</v>
       </c>
       <c r="W187" s="7">
-        <f>R187*P187</f>
+        <f t="shared" si="46"/>
         <v>42524.378000000004</v>
       </c>
       <c r="X187" s="7">
-        <f>S187*O187</f>
+        <f t="shared" si="47"/>
         <v>21262.189000000002</v>
       </c>
       <c r="Y187" s="7">
-        <f>T187*P187</f>
+        <f t="shared" ref="Y187:Y218" si="49">T187*P187</f>
         <v>85048.756000000008</v>
       </c>
       <c r="Z187" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>106310.94500000001</v>
       </c>
     </row>
@@ -20043,11 +20037,11 @@
         <v>0.2</v>
       </c>
       <c r="O188" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>145392.80000000002</v>
       </c>
       <c r="P188" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>36348.200000000004</v>
       </c>
       <c r="Q188" s="11">
@@ -20061,27 +20055,27 @@
         <v>0.1</v>
       </c>
       <c r="U188" s="7">
-        <f>L188-(V188+W188+X188+Y188)</f>
+        <f t="shared" si="45"/>
         <v>152662.44</v>
       </c>
       <c r="V188" s="7">
-        <f>Q188*L188</f>
+        <f t="shared" si="48"/>
         <v>10904.46</v>
       </c>
       <c r="W188" s="7">
-        <f>R188*P188</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X188" s="7">
-        <f>S188*O188</f>
+        <f t="shared" si="47"/>
         <v>14539.280000000002</v>
       </c>
       <c r="Y188" s="7">
-        <f>T188*P188</f>
+        <f t="shared" si="49"/>
         <v>3634.8200000000006</v>
       </c>
       <c r="Z188" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>18174.100000000002</v>
       </c>
     </row>
@@ -20125,11 +20119,11 @@
         <v>0.5</v>
       </c>
       <c r="O189" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P189" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q189" s="11">
@@ -20143,27 +20137,27 @@
         <v>0.1</v>
       </c>
       <c r="U189" s="7">
-        <f>L189-(V189+W189+X189+Y189)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V189" s="7">
-        <f>Q189*L189</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W189" s="7">
-        <f>R189*P189</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X189" s="7">
-        <f>S189*O189</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y189" s="7">
-        <f>T189*P189</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z189" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20209,11 +20203,11 @@
         <v>0.5</v>
       </c>
       <c r="O190" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>345720.8</v>
       </c>
       <c r="P190" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>345720.8</v>
       </c>
       <c r="Q190" s="11">
@@ -20229,27 +20223,27 @@
         <v>0.3</v>
       </c>
       <c r="U190" s="7">
-        <f>L190-(V190+W190+X190+Y190)</f>
+        <f t="shared" si="45"/>
         <v>442522.62399999995</v>
       </c>
       <c r="V190" s="7">
-        <f>Q190*L190</f>
+        <f t="shared" si="48"/>
         <v>41486.495999999999</v>
       </c>
       <c r="W190" s="7">
-        <f>R190*P190</f>
+        <f t="shared" si="46"/>
         <v>69144.160000000003</v>
       </c>
       <c r="X190" s="7">
-        <f>S190*O190</f>
+        <f t="shared" si="47"/>
         <v>34572.080000000002</v>
       </c>
       <c r="Y190" s="7">
-        <f>T190*P190</f>
+        <f t="shared" si="49"/>
         <v>103716.23999999999</v>
       </c>
       <c r="Z190" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>138288.32000000001</v>
       </c>
     </row>
@@ -20293,11 +20287,11 @@
         <v>0.2</v>
       </c>
       <c r="O191" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P191" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q191" s="11">
@@ -20313,27 +20307,27 @@
         <v>0.6</v>
       </c>
       <c r="U191" s="7">
-        <f>L191-(V191+W191+X191+Y191)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V191" s="7">
-        <f>Q191*L191</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W191" s="7">
-        <f>R191*P191</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X191" s="7">
-        <f>S191*O191</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y191" s="7">
-        <f>T191*P191</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z191" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20377,11 +20371,11 @@
         <v>0</v>
       </c>
       <c r="O192" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P192" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q192" s="11">
@@ -20393,27 +20387,27 @@
       </c>
       <c r="T192" s="11"/>
       <c r="U192" s="7">
-        <f>L192-(V192+W192+X192+Y192)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V192" s="7">
-        <f>Q192*L192</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W192" s="7">
-        <f>R192*P192</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X192" s="7">
-        <f>S192*O192</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y192" s="7">
-        <f>T192*P192</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z192" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20457,11 +20451,11 @@
         <v>0</v>
       </c>
       <c r="O193" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P193" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q193" s="11">
@@ -20473,27 +20467,27 @@
       </c>
       <c r="T193" s="11"/>
       <c r="U193" s="7">
-        <f>L193-(V193+W193+X193+Y193)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V193" s="7">
-        <f>Q193*L193</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W193" s="7">
-        <f>R193*P193</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X193" s="7">
-        <f>S193*O193</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y193" s="7">
-        <f>T193*P193</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z193" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20539,11 +20533,11 @@
         <v>0</v>
       </c>
       <c r="O194" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>500</v>
       </c>
       <c r="P194" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q194" s="11">
@@ -20555,27 +20549,27 @@
       </c>
       <c r="T194" s="11"/>
       <c r="U194" s="7">
-        <f>L194-(V194+W194+X194+Y194)</f>
+        <f t="shared" si="45"/>
         <v>430</v>
       </c>
       <c r="V194" s="7">
-        <f>Q194*L194</f>
+        <f t="shared" si="48"/>
         <v>30</v>
       </c>
       <c r="W194" s="7">
-        <f>R194*P194</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X194" s="7">
-        <f>S194*O194</f>
+        <f t="shared" si="47"/>
         <v>40</v>
       </c>
       <c r="Y194" s="7">
-        <f>T194*P194</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z194" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>40</v>
       </c>
     </row>
@@ -20619,11 +20613,11 @@
         <v>0</v>
       </c>
       <c r="O195" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P195" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q195" s="11">
@@ -20635,27 +20629,27 @@
       </c>
       <c r="T195" s="11"/>
       <c r="U195" s="7">
-        <f>L195-(V195+W195+X195+Y195)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V195" s="7">
-        <f>Q195*L195</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W195" s="7">
-        <f>R195*P195</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X195" s="7">
-        <f>S195*O195</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y195" s="7">
-        <f>T195*P195</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z195" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20699,11 +20693,11 @@
         <v>0.3</v>
       </c>
       <c r="O196" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P196" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q196" s="11">
@@ -20717,27 +20711,27 @@
         <v>0.3</v>
       </c>
       <c r="U196" s="7">
-        <f>L196-(V196+W196+X196+Y196)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V196" s="7">
-        <f>Q196*L196</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W196" s="7">
-        <f>R196*P196</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X196" s="7">
-        <f>S196*O196</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y196" s="7">
-        <f>T196*P196</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z196" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20781,11 +20775,11 @@
         <v>0</v>
       </c>
       <c r="O197" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P197" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q197" s="11">
@@ -20797,27 +20791,27 @@
       </c>
       <c r="T197" s="11"/>
       <c r="U197" s="7">
-        <f>L197-(V197+W197+X197+Y197)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V197" s="7">
-        <f>Q197*L197</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W197" s="7">
-        <f>R197*P197</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X197" s="7">
-        <f>S197*O197</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y197" s="7">
-        <f>T197*P197</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z197" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20861,11 +20855,11 @@
         <v>0.3</v>
       </c>
       <c r="O198" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P198" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q198" s="11">
@@ -20879,27 +20873,27 @@
         <v>0.3</v>
       </c>
       <c r="U198" s="7">
-        <f>L198-(V198+W198+X198+Y198)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V198" s="7">
-        <f>Q198*L198</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W198" s="7">
-        <f>R198*P198</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X198" s="7">
-        <f>S198*O198</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y198" s="7">
-        <f>T198*P198</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z198" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20943,11 +20937,11 @@
         <v>0</v>
       </c>
       <c r="O199" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P199" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q199" s="11">
@@ -20957,27 +20951,27 @@
       <c r="S199" s="11"/>
       <c r="T199" s="11"/>
       <c r="U199" s="7">
-        <f>L199-(V199+W199+X199+Y199)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V199" s="7">
-        <f>Q199*L199</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W199" s="7">
-        <f>R199*P199</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X199" s="7">
-        <f>S199*O199</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y199" s="7">
-        <f>T199*P199</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z199" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21021,11 +21015,11 @@
         <v>0.3</v>
       </c>
       <c r="O200" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P200" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q200" s="11">
@@ -21039,27 +21033,27 @@
         <v>0.15</v>
       </c>
       <c r="U200" s="7">
-        <f>L200-(V200+W200+X200+Y200)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V200" s="7">
-        <f>Q200*L200</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W200" s="7">
-        <f>R200*P200</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X200" s="7">
-        <f>S200*O200</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y200" s="7">
-        <f>T200*P200</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z200" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21103,11 +21097,11 @@
         <v>0</v>
       </c>
       <c r="O201" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P201" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q201" s="11">
@@ -21119,27 +21113,27 @@
       </c>
       <c r="T201" s="11"/>
       <c r="U201" s="7">
-        <f>L201-(V201+W201+X201+Y201)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V201" s="7">
-        <f>Q201*L201</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W201" s="7">
-        <f>R201*P201</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X201" s="7">
-        <f>S201*O201</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y201" s="7">
-        <f>T201*P201</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z201" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21183,11 +21177,11 @@
         <v>0</v>
       </c>
       <c r="O202" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P202" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q202" s="11">
@@ -21199,27 +21193,27 @@
       </c>
       <c r="T202" s="11"/>
       <c r="U202" s="7">
-        <f>L202-(V202+W202+X202+Y202)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V202" s="7">
-        <f>Q202*L202</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W202" s="7">
-        <f>R202*P202</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X202" s="7">
-        <f>S202*O202</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y202" s="7">
-        <f>T202*P202</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z202" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21263,11 +21257,11 @@
         <v>0.1</v>
       </c>
       <c r="O203" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P203" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q203" s="11">
@@ -21281,27 +21275,27 @@
         <v>0</v>
       </c>
       <c r="U203" s="7">
-        <f>L203-(V203+W203+X203+Y203)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V203" s="7">
-        <f>Q203*L203</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W203" s="7">
-        <f>R203*P203</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X203" s="7">
-        <f>S203*O203</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y203" s="7">
-        <f>T203*P203</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z203" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21345,11 +21339,11 @@
         <v>0</v>
       </c>
       <c r="O204" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P204" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q204" s="11">
@@ -21361,27 +21355,27 @@
       </c>
       <c r="T204" s="11"/>
       <c r="U204" s="7">
-        <f>L204-(V204+W204+X204+Y204)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V204" s="7">
-        <f>Q204*L204</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W204" s="7">
-        <f>R204*P204</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X204" s="7">
-        <f>S204*O204</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y204" s="7">
-        <f>T204*P204</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z204" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21427,11 +21421,11 @@
         <v>0.5</v>
       </c>
       <c r="O205" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>22335.5</v>
       </c>
       <c r="P205" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>22335.5</v>
       </c>
       <c r="Q205" s="11">
@@ -21445,27 +21439,27 @@
         <v>0</v>
       </c>
       <c r="U205" s="7">
-        <f>L205-(V205+W205+X205+Y205)</f>
+        <f t="shared" si="45"/>
         <v>39757.19</v>
       </c>
       <c r="V205" s="7">
-        <f>Q205*L205</f>
+        <f t="shared" si="48"/>
         <v>2680.2599999999998</v>
       </c>
       <c r="W205" s="7">
-        <f>R205*P205</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X205" s="7">
-        <f>S205*O205</f>
+        <f t="shared" si="47"/>
         <v>2233.5500000000002</v>
       </c>
       <c r="Y205" s="7">
-        <f>T205*P205</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z205" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>2233.5500000000002</v>
       </c>
     </row>
@@ -21509,11 +21503,11 @@
         <v>0</v>
       </c>
       <c r="O206" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P206" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q206" s="11">
@@ -21525,27 +21519,27 @@
       </c>
       <c r="T206" s="11"/>
       <c r="U206" s="7">
-        <f>L206-(V206+W206+X206+Y206)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V206" s="7">
-        <f>Q206*L206</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W206" s="7">
-        <f>R206*P206</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X206" s="7">
-        <f>S206*O206</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y206" s="7">
-        <f>T206*P206</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z206" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21589,11 +21583,11 @@
         <v>0</v>
       </c>
       <c r="O207" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P207" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q207" s="11">
@@ -21605,27 +21599,27 @@
       </c>
       <c r="T207" s="33"/>
       <c r="U207" s="7">
-        <f>L207-(V207+W207+X207+Y207)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V207" s="7">
-        <f>Q207*L207</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W207" s="7">
-        <f>R207*P207</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X207" s="7">
-        <f>S207*O207</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y207" s="7">
-        <f>T207*P207</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z207" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21669,11 +21663,11 @@
         <v>0</v>
       </c>
       <c r="O208" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P208" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q208" s="11">
@@ -21685,27 +21679,27 @@
       </c>
       <c r="T208" s="11"/>
       <c r="U208" s="7">
-        <f>L208-(V208+W208+X208+Y208)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V208" s="7">
-        <f>Q208*L208</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W208" s="7">
-        <f>R208*P208</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X208" s="7">
-        <f>S208*O208</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y208" s="7">
-        <f>T208*P208</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z208" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21749,11 +21743,11 @@
         <v>0.1</v>
       </c>
       <c r="O209" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P209" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q209" s="11">
@@ -21767,27 +21761,27 @@
         <v>0.25</v>
       </c>
       <c r="U209" s="7">
-        <f>L209-(V209+W209+X209+Y209)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V209" s="7">
-        <f>Q209*L209</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W209" s="7">
-        <f>R209*P209</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X209" s="7">
-        <f>S209*O209</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y209" s="7">
-        <f>T209*P209</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z209" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21831,11 +21825,11 @@
         <v>0.1</v>
       </c>
       <c r="O210" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P210" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q210" s="11">
@@ -21849,27 +21843,27 @@
         <v>0.3</v>
       </c>
       <c r="U210" s="7">
-        <f>L210-(V210+W210+X210+Y210)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V210" s="7">
-        <f>Q210*L210</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W210" s="7">
-        <f>R210*P210</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X210" s="7">
-        <f>S210*O210</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y210" s="7">
-        <f>T210*P210</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z210" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21913,11 +21907,11 @@
         <v>0.1</v>
       </c>
       <c r="O211" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P211" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q211" s="11">
@@ -21931,27 +21925,27 @@
         <v>0.25</v>
       </c>
       <c r="U211" s="7">
-        <f>L211-(V211+W211+X211+Y211)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V211" s="7">
-        <f>Q211*L211</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W211" s="7">
-        <f>R211*P211</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X211" s="7">
-        <f>S211*O211</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y211" s="7">
-        <f>T211*P211</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z211" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -21995,11 +21989,11 @@
         <v>0.1</v>
       </c>
       <c r="O212" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P212" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q212" s="11">
@@ -22013,27 +22007,27 @@
         <v>1</v>
       </c>
       <c r="U212" s="7">
-        <f>L212-(V212+W212+X212+Y212)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V212" s="7">
-        <f>Q212*L212</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W212" s="7">
-        <f>R212*P212</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X212" s="7">
-        <f>S212*O212</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y212" s="7">
-        <f>T212*P212</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z212" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -22077,11 +22071,11 @@
         <v>0</v>
       </c>
       <c r="O213" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P213" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q213" s="11">
@@ -22093,27 +22087,27 @@
       </c>
       <c r="T213" s="11"/>
       <c r="U213" s="7">
-        <f>L213-(V213+W213+X213+Y213)</f>
+        <f t="shared" ref="U213:U244" si="50">L213-(V213+W213+X213+Y213)</f>
         <v>0</v>
       </c>
       <c r="V213" s="7">
-        <f>Q213*L213</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W213" s="7">
-        <f>R213*P213</f>
+        <f t="shared" ref="W213:W230" si="51">R213*P213</f>
         <v>0</v>
       </c>
       <c r="X213" s="7">
-        <f>S213*O213</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y213" s="7">
-        <f>T213*P213</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z213" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -22159,11 +22153,11 @@
         <v>0.2</v>
       </c>
       <c r="O214" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>10629.6</v>
       </c>
       <c r="P214" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>2657.4</v>
       </c>
       <c r="Q214" s="11">
@@ -22177,27 +22171,27 @@
         <v>0.1</v>
       </c>
       <c r="U214" s="7">
-        <f>L214-(V214+W214+X214+Y214)</f>
+        <f t="shared" si="50"/>
         <v>11692.56</v>
       </c>
       <c r="V214" s="7">
-        <f>Q214*L214</f>
+        <f t="shared" si="48"/>
         <v>797.22</v>
       </c>
       <c r="W214" s="7">
-        <f>R214*P214</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X214" s="7">
-        <f>S214*O214</f>
+        <f t="shared" si="47"/>
         <v>531.48</v>
       </c>
       <c r="Y214" s="7">
-        <f>T214*P214</f>
+        <f t="shared" si="49"/>
         <v>265.74</v>
       </c>
       <c r="Z214" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>797.22</v>
       </c>
     </row>
@@ -22241,11 +22235,11 @@
         <v>0.1</v>
       </c>
       <c r="O215" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P215" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q215" s="11">
@@ -22259,27 +22253,27 @@
         <v>0.25</v>
       </c>
       <c r="U215" s="7">
-        <f>L215-(V215+W215+X215+Y215)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V215" s="7">
-        <f>Q215*L215</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W215" s="7">
-        <f>R215*P215</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X215" s="7">
-        <f>S215*O215</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y215" s="7">
-        <f>T215*P215</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z215" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -22323,11 +22317,11 @@
         <v>0.1</v>
       </c>
       <c r="O216" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P216" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q216" s="11">
@@ -22341,27 +22335,27 @@
         <v>0.25</v>
       </c>
       <c r="U216" s="7">
-        <f>L216-(V216+W216+X216+Y216)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V216" s="7">
-        <f>Q216*L216</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W216" s="7">
-        <f>R216*P216</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X216" s="7">
-        <f>S216*O216</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y216" s="7">
-        <f>T216*P216</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z216" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -22405,11 +22399,11 @@
         <v>0.1</v>
       </c>
       <c r="O217" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P217" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q217" s="11">
@@ -22423,27 +22417,27 @@
         <v>0.1</v>
       </c>
       <c r="U217" s="7">
-        <f>L217-(V217+W217+X217+Y217)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V217" s="7">
-        <f>Q217*L217</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W217" s="7">
-        <f>R217*P217</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X217" s="7">
-        <f>S217*O217</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y217" s="7">
-        <f>T217*P217</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z217" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -22489,11 +22483,11 @@
         <v>0.3</v>
       </c>
       <c r="O218" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>13650.231</v>
       </c>
       <c r="P218" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>5850.0990000000002</v>
       </c>
       <c r="Q218" s="11">
@@ -22507,27 +22501,27 @@
         <v>0.01</v>
       </c>
       <c r="U218" s="7">
-        <f>L218-(V218+W218+X218+Y218)</f>
+        <f t="shared" si="50"/>
         <v>18135.306900000003</v>
       </c>
       <c r="V218" s="7">
-        <f>Q218*L218</f>
+        <f t="shared" si="48"/>
         <v>1170.0198</v>
       </c>
       <c r="W218" s="7">
-        <f>R218*P218</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X218" s="7">
-        <f>S218*O218</f>
+        <f t="shared" ref="X218:X230" si="52">S218*O218</f>
         <v>136.50230999999999</v>
       </c>
       <c r="Y218" s="7">
-        <f>T218*P218</f>
+        <f t="shared" si="49"/>
         <v>58.500990000000002</v>
       </c>
       <c r="Z218" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>195.0033</v>
       </c>
     </row>
@@ -22573,11 +22567,11 @@
         <v>0.3</v>
       </c>
       <c r="O219" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>262784.011</v>
       </c>
       <c r="P219" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>112621.719</v>
       </c>
       <c r="Q219" s="11">
@@ -22591,27 +22585,27 @@
         <v>0.01</v>
       </c>
       <c r="U219" s="7">
-        <f>L219-(V219+W219+X219+Y219)</f>
+        <f t="shared" si="50"/>
         <v>349127.32889999996</v>
       </c>
       <c r="V219" s="7">
-        <f>Q219*L219</f>
+        <f t="shared" ref="V219:V230" si="53">Q219*L219</f>
         <v>22524.343799999999</v>
       </c>
       <c r="W219" s="7">
-        <f>R219*P219</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X219" s="7">
-        <f>S219*O219</f>
+        <f t="shared" si="52"/>
         <v>2627.8401100000001</v>
       </c>
       <c r="Y219" s="7">
-        <f>T219*P219</f>
+        <f t="shared" ref="Y219:Y230" si="54">T219*P219</f>
         <v>1126.2171900000001</v>
       </c>
       <c r="Z219" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>3754.0573000000004</v>
       </c>
     </row>
@@ -22657,11 +22651,11 @@
         <v>1</v>
       </c>
       <c r="O220" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P220" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>4582268.16</v>
       </c>
       <c r="Q220" s="18">
@@ -22675,27 +22669,27 @@
         <v>0.3</v>
       </c>
       <c r="U220" s="7">
-        <f>L220-(V220+W220+X220+Y220)</f>
+        <f t="shared" si="50"/>
         <v>2153666.0351999998</v>
       </c>
       <c r="V220" s="7">
-        <f>Q220*L220</f>
+        <f t="shared" si="53"/>
         <v>274936.08960000001</v>
       </c>
       <c r="W220" s="28">
-        <f>R220*P220</f>
+        <f t="shared" si="51"/>
         <v>778985.58720000007</v>
       </c>
       <c r="X220" s="7">
-        <f>S220*O220</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y220" s="7">
-        <f>T220*P220</f>
+        <f t="shared" si="54"/>
         <v>1374680.4480000001</v>
       </c>
       <c r="Z220" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1374680.4480000001</v>
       </c>
     </row>
@@ -22741,11 +22735,11 @@
         <v>0</v>
       </c>
       <c r="O221" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>31561.119999999999</v>
       </c>
       <c r="P221" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q221" s="11">
@@ -22757,27 +22751,27 @@
       </c>
       <c r="T221" s="11"/>
       <c r="U221" s="7">
-        <f>L221-(V221+W221+X221+Y221)</f>
+        <f t="shared" si="50"/>
         <v>28089.396799999999</v>
       </c>
       <c r="V221" s="7">
-        <f>Q221*L221</f>
+        <f t="shared" si="53"/>
         <v>1893.6671999999999</v>
       </c>
       <c r="W221" s="7">
-        <f>R221*P221</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X221" s="7">
-        <f>S221*O221</f>
+        <f t="shared" si="52"/>
         <v>1578.056</v>
       </c>
       <c r="Y221" s="7">
-        <f>T221*P221</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z221" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>1578.056</v>
       </c>
     </row>
@@ -22821,11 +22815,11 @@
         <v>0</v>
       </c>
       <c r="O222" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P222" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q222" s="11">
@@ -22837,27 +22831,27 @@
       </c>
       <c r="T222" s="11"/>
       <c r="U222" s="7">
-        <f>L222-(V222+W222+X222+Y222)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V222" s="7">
-        <f>Q222*L222</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W222" s="7">
-        <f>R222*P222</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X222" s="7">
-        <f>S222*O222</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y222" s="7">
-        <f>T222*P222</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z222" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -22901,11 +22895,11 @@
         <v>0.1</v>
       </c>
       <c r="O223" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P223" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q223" s="11">
@@ -22919,27 +22913,27 @@
         <v>0.25</v>
       </c>
       <c r="U223" s="7">
-        <f>L223-(V223+W223+X223+Y223)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V223" s="7">
-        <f>Q223*L223</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W223" s="7">
-        <f>R223*P223</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X223" s="7">
-        <f>S223*O223</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y223" s="7">
-        <f>T223*P223</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z223" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -22983,11 +22977,11 @@
         <v>0.2</v>
       </c>
       <c r="O224" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P224" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q224" s="11">
@@ -23001,27 +22995,27 @@
         <v>0.25</v>
       </c>
       <c r="U224" s="7">
-        <f>L224-(V224+W224+X224+Y224)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V224" s="7">
-        <f>Q224*L224</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W224" s="7">
-        <f>R224*P224</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X224" s="7">
-        <f>S224*O224</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y224" s="7">
-        <f>T224*P224</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z224" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -23067,11 +23061,11 @@
         <v>0.2</v>
       </c>
       <c r="O225" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>96</v>
       </c>
       <c r="P225" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>24</v>
       </c>
       <c r="Q225" s="11">
@@ -23085,27 +23079,27 @@
         <v>0.25</v>
       </c>
       <c r="U225" s="7">
-        <f>L225-(V225+W225+X225+Y225)</f>
+        <f t="shared" si="50"/>
         <v>97.2</v>
       </c>
       <c r="V225" s="7">
-        <f>Q225*L225</f>
+        <f t="shared" si="53"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="W225" s="7">
-        <f>R225*P225</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X225" s="7">
-        <f>S225*O225</f>
+        <f t="shared" si="52"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="Y225" s="7">
-        <f>T225*P225</f>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="Z225" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>15.600000000000001</v>
       </c>
     </row>
@@ -23151,11 +23145,11 @@
         <v>0.2</v>
       </c>
       <c r="O226" s="7">
-        <f t="shared" ref="O226:O230" si="35">M226*L226</f>
+        <f t="shared" ref="O226:O230" si="55">M226*L226</f>
         <v>91486.8</v>
       </c>
       <c r="P226" s="7">
-        <f t="shared" ref="P226:P230" si="36">N226*L226</f>
+        <f t="shared" ref="P226:P230" si="56">N226*L226</f>
         <v>22871.7</v>
       </c>
       <c r="Q226" s="11">
@@ -23169,27 +23163,27 @@
         <v>0.18</v>
       </c>
       <c r="U226" s="7">
-        <f>L226-(V226+W226+X226+Y226)</f>
+        <f t="shared" si="50"/>
         <v>89657.063999999998</v>
       </c>
       <c r="V226" s="7">
-        <f>Q226*L226</f>
+        <f t="shared" si="53"/>
         <v>6861.5099999999993</v>
       </c>
       <c r="W226" s="7">
-        <f>R226*P226</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X226" s="7">
-        <f>S226*O226</f>
+        <f t="shared" si="52"/>
         <v>13723.02</v>
       </c>
       <c r="Y226" s="7">
-        <f>T226*P226</f>
+        <f t="shared" si="54"/>
         <v>4116.9059999999999</v>
       </c>
       <c r="Z226" s="61">
-        <f t="shared" ref="Z226:Z230" si="37">X226+Y226</f>
+        <f t="shared" ref="Z226:Z230" si="57">X226+Y226</f>
         <v>17839.925999999999</v>
       </c>
     </row>
@@ -23233,11 +23227,11 @@
         <v>0.2</v>
       </c>
       <c r="O227" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P227" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q227" s="11">
@@ -23251,27 +23245,27 @@
         <v>0.25</v>
       </c>
       <c r="U227" s="7">
-        <f>L227-(V227+W227+X227+Y227)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V227" s="7">
-        <f>Q227*L227</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W227" s="7">
-        <f>R227*P227</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X227" s="7">
-        <f>S227*O227</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y227" s="7">
-        <f>T227*P227</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z227" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -23315,11 +23309,11 @@
         <v>0.1</v>
       </c>
       <c r="O228" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P228" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q228" s="11">
@@ -23333,27 +23327,27 @@
         <v>0.25</v>
       </c>
       <c r="U228" s="7">
-        <f>L228-(V228+W228+X228+Y228)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V228" s="7">
-        <f>Q228*L228</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W228" s="7">
-        <f>R228*P228</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X228" s="7">
-        <f>S228*O228</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y228" s="7">
-        <f>T228*P228</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z228" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -23399,11 +23393,11 @@
         <v>0.2</v>
       </c>
       <c r="O229" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>210232.12000000002</v>
       </c>
       <c r="P229" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>52558.030000000006</v>
       </c>
       <c r="Q229" s="11">
@@ -23417,27 +23411,27 @@
         <v>0.18</v>
       </c>
       <c r="U229" s="7">
-        <f>L229-(V229+W229+X229+Y229)</f>
+        <f t="shared" si="50"/>
         <v>216539.08360000001</v>
       </c>
       <c r="V229" s="7">
-        <f>Q229*L229</f>
+        <f t="shared" si="53"/>
         <v>15767.409000000001</v>
       </c>
       <c r="W229" s="7">
-        <f>R229*P229</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X229" s="7">
-        <f>S229*O229</f>
+        <f t="shared" si="52"/>
         <v>21023.212000000003</v>
       </c>
       <c r="Y229" s="7">
-        <f>T229*P229</f>
+        <f t="shared" si="54"/>
         <v>9460.4454000000005</v>
       </c>
       <c r="Z229" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>30483.657400000004</v>
       </c>
     </row>
@@ -23483,11 +23477,11 @@
         <v>0.05</v>
       </c>
       <c r="O230" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1145721.3369999998</v>
       </c>
       <c r="P230" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>60301.123</v>
       </c>
       <c r="Q230" s="11">
@@ -23501,27 +23495,27 @@
         <v>0.22</v>
       </c>
       <c r="U230" s="7">
-        <f>L230-(V230+W230+X230+Y230)</f>
+        <f t="shared" si="50"/>
         <v>937079.45142000006</v>
       </c>
       <c r="V230" s="7">
-        <f>Q230*L230</f>
+        <f t="shared" si="53"/>
         <v>72361.347599999994</v>
       </c>
       <c r="W230" s="7">
-        <f>R230*P230</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X230" s="17">
-        <f>S230*O230</f>
+        <f t="shared" si="52"/>
         <v>183315.41391999996</v>
       </c>
       <c r="Y230" s="7">
-        <f>T230*P230</f>
+        <f t="shared" si="54"/>
         <v>13266.24706</v>
       </c>
       <c r="Z230" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>196581.66097999996</v>
       </c>
     </row>
@@ -23535,20 +23529,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3bb9dc88-f2da-4766-8908-3ca1e2958d73" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3bb9dc88-f2da-4766-8908-3ca1e2958d73" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23758,14 +23752,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0263AF5-3235-4A9E-A81A-1A30FD513646}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4B4EE4-57DD-4509-98F8-31AD878EA5A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -23777,6 +23763,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0263AF5-3235-4A9E-A81A-1A30FD513646}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
